--- a/02-PROYECTO/04_DOCS/Calificaciones.xlsx
+++ b/02-PROYECTO/04_DOCS/Calificaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\07-SQL-GIT\02-PROYECTO\04_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2F508-A943-465C-A049-081B1B530DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDE984-7FC5-467D-964F-129B755C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{2999E0EE-D397-4155-8909-EFA676B4A508}"/>
+    <workbookView xWindow="2295" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{2999E0EE-D397-4155-8909-EFA676B4A508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1933EE98-3421-49D1-9A23-6DAC0A6D7611}">
-  <dimension ref="B1:M161"/>
+  <dimension ref="B1:M281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E82" s="2">
         <v>9</v>
@@ -2930,7 +2930,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" s="2">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -4139,6 +4139,2766 @@
       </c>
       <c r="H161" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>161</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2</v>
+      </c>
+      <c r="E162" s="2">
+        <v>10</v>
+      </c>
+      <c r="F162" s="2">
+        <v>8</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2">
+        <v>162</v>
+      </c>
+      <c r="D163" s="2">
+        <v>9</v>
+      </c>
+      <c r="E163" s="2">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2">
+        <v>6</v>
+      </c>
+      <c r="G163" s="2">
+        <v>8</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="2">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2">
+        <v>163</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7</v>
+      </c>
+      <c r="E164" s="2">
+        <v>6</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="2">
+        <v>6</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="2">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2">
+        <v>164</v>
+      </c>
+      <c r="D165" s="2">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2">
+        <v>10</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="2">
+        <v>165</v>
+      </c>
+      <c r="C166" s="2">
+        <v>165</v>
+      </c>
+      <c r="D166" s="2">
+        <v>6</v>
+      </c>
+      <c r="E166" s="2">
+        <v>10</v>
+      </c>
+      <c r="F166" s="2">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2">
+        <v>166</v>
+      </c>
+      <c r="D167" s="2">
+        <v>9</v>
+      </c>
+      <c r="E167" s="2">
+        <v>8</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="2">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2">
+        <v>167</v>
+      </c>
+      <c r="D168" s="2">
+        <v>7</v>
+      </c>
+      <c r="E168" s="2">
+        <v>4</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="2">
+        <v>3</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="2">
+        <v>168</v>
+      </c>
+      <c r="C169" s="2">
+        <v>168</v>
+      </c>
+      <c r="D169" s="2">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2">
+        <v>6</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>6</v>
+      </c>
+      <c r="H169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="2">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2">
+        <v>169</v>
+      </c>
+      <c r="D170" s="2">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2">
+        <v>8</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
+        <v>170</v>
+      </c>
+      <c r="C171" s="2">
+        <v>170</v>
+      </c>
+      <c r="D171" s="2">
+        <v>9</v>
+      </c>
+      <c r="E171" s="2">
+        <v>10</v>
+      </c>
+      <c r="F171" s="2">
+        <v>7</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>171</v>
+      </c>
+      <c r="C172" s="2">
+        <v>171</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2</v>
+      </c>
+      <c r="E172" s="2">
+        <v>9</v>
+      </c>
+      <c r="F172" s="2">
+        <v>6</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
+        <v>172</v>
+      </c>
+      <c r="C173" s="2">
+        <v>172</v>
+      </c>
+      <c r="D173" s="2">
+        <v>10</v>
+      </c>
+      <c r="E173" s="2">
+        <v>9</v>
+      </c>
+      <c r="F173" s="2">
+        <v>0</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="2">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2">
+        <v>173</v>
+      </c>
+      <c r="D174" s="2">
+        <v>10</v>
+      </c>
+      <c r="E174" s="2">
+        <v>10</v>
+      </c>
+      <c r="F174" s="2">
+        <v>0</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="2">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2">
+        <v>174</v>
+      </c>
+      <c r="D175" s="2">
+        <v>4</v>
+      </c>
+      <c r="E175" s="2">
+        <v>8</v>
+      </c>
+      <c r="F175" s="2">
+        <v>5</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="2">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2">
+        <v>175</v>
+      </c>
+      <c r="D176" s="2">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2">
+        <v>8</v>
+      </c>
+      <c r="F176" s="2">
+        <v>0</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="2">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2">
+        <v>176</v>
+      </c>
+      <c r="D177" s="2">
+        <v>7</v>
+      </c>
+      <c r="E177" s="2">
+        <v>8</v>
+      </c>
+      <c r="F177" s="2">
+        <v>0</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="2">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2">
+        <v>177</v>
+      </c>
+      <c r="D178" s="2">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2">
+        <v>8</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="2">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2">
+        <v>178</v>
+      </c>
+      <c r="D179" s="2">
+        <v>4</v>
+      </c>
+      <c r="E179" s="2">
+        <v>4</v>
+      </c>
+      <c r="F179" s="2">
+        <v>6</v>
+      </c>
+      <c r="G179" s="2">
+        <v>4</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="2">
+        <v>179</v>
+      </c>
+      <c r="C180" s="2">
+        <v>179</v>
+      </c>
+      <c r="D180" s="2">
+        <v>7</v>
+      </c>
+      <c r="E180" s="2">
+        <v>6</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
+        <v>5</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2">
+        <v>180</v>
+      </c>
+      <c r="D181" s="2">
+        <v>6</v>
+      </c>
+      <c r="E181" s="2">
+        <v>4</v>
+      </c>
+      <c r="F181" s="2">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2">
+        <v>4</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="2">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2">
+        <v>181</v>
+      </c>
+      <c r="D182" s="2">
+        <v>9</v>
+      </c>
+      <c r="E182" s="2">
+        <v>10</v>
+      </c>
+      <c r="F182" s="2">
+        <v>0</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2">
+        <v>182</v>
+      </c>
+      <c r="D183" s="2">
+        <v>8</v>
+      </c>
+      <c r="E183" s="2">
+        <v>8</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="2">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2">
+        <v>183</v>
+      </c>
+      <c r="D184" s="2">
+        <v>9</v>
+      </c>
+      <c r="E184" s="2">
+        <v>5</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0</v>
+      </c>
+      <c r="G184" s="2">
+        <v>8</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="2">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2">
+        <v>184</v>
+      </c>
+      <c r="D185" s="2">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2">
+        <v>9</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="2">
+        <v>185</v>
+      </c>
+      <c r="C186" s="2">
+        <v>185</v>
+      </c>
+      <c r="D186" s="2">
+        <v>9</v>
+      </c>
+      <c r="E186" s="2">
+        <v>7</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="2">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2">
+        <v>186</v>
+      </c>
+      <c r="D187" s="2">
+        <v>8</v>
+      </c>
+      <c r="E187" s="2">
+        <v>8</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="2">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2">
+        <v>187</v>
+      </c>
+      <c r="D188" s="2">
+        <v>7</v>
+      </c>
+      <c r="E188" s="2">
+        <v>9</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
+        <v>188</v>
+      </c>
+      <c r="C189" s="2">
+        <v>188</v>
+      </c>
+      <c r="D189" s="2">
+        <v>8</v>
+      </c>
+      <c r="E189" s="2">
+        <v>7</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
+        <v>189</v>
+      </c>
+      <c r="C190" s="2">
+        <v>189</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2</v>
+      </c>
+      <c r="E190" s="2">
+        <v>8</v>
+      </c>
+      <c r="F190" s="2">
+        <v>9</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="2">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2">
+        <v>190</v>
+      </c>
+      <c r="D191" s="2">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0</v>
+      </c>
+      <c r="G191" s="2">
+        <v>8</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="2">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2">
+        <v>191</v>
+      </c>
+      <c r="D192" s="2">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2">
+        <v>9</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="2">
+        <v>192</v>
+      </c>
+      <c r="C193" s="2">
+        <v>192</v>
+      </c>
+      <c r="D193" s="2">
+        <v>9</v>
+      </c>
+      <c r="E193" s="2">
+        <v>7</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="2">
+        <v>193</v>
+      </c>
+      <c r="C194" s="2">
+        <v>193</v>
+      </c>
+      <c r="D194" s="2">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2">
+        <v>8</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="2">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2">
+        <v>194</v>
+      </c>
+      <c r="D195" s="2">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2">
+        <v>9</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="2">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2">
+        <v>195</v>
+      </c>
+      <c r="D196" s="2">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2">
+        <v>7</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="2">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2">
+        <v>196</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2</v>
+      </c>
+      <c r="E197" s="2">
+        <v>8</v>
+      </c>
+      <c r="F197" s="2">
+        <v>9</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="2">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>197</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2</v>
+      </c>
+      <c r="E198" s="2">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2">
+        <v>8</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="2">
+        <v>198</v>
+      </c>
+      <c r="C199" s="2">
+        <v>198</v>
+      </c>
+      <c r="D199" s="2">
+        <v>9</v>
+      </c>
+      <c r="E199" s="2">
+        <v>5</v>
+      </c>
+      <c r="F199" s="2">
+        <v>6</v>
+      </c>
+      <c r="G199" s="2">
+        <v>8</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="2">
+        <v>199</v>
+      </c>
+      <c r="C200" s="2">
+        <v>199</v>
+      </c>
+      <c r="D200" s="2">
+        <v>7</v>
+      </c>
+      <c r="E200" s="2">
+        <v>6</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0</v>
+      </c>
+      <c r="G200" s="2">
+        <v>6</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="2">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2">
+        <v>200</v>
+      </c>
+      <c r="D201" s="2">
+        <v>9</v>
+      </c>
+      <c r="E201" s="2">
+        <v>10</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="2">
+        <v>201</v>
+      </c>
+      <c r="C202" s="2">
+        <v>201</v>
+      </c>
+      <c r="D202" s="2">
+        <v>6</v>
+      </c>
+      <c r="E202" s="2">
+        <v>10</v>
+      </c>
+      <c r="F202" s="2">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="2">
+        <v>202</v>
+      </c>
+      <c r="C203" s="2">
+        <v>202</v>
+      </c>
+      <c r="D203" s="2">
+        <v>9</v>
+      </c>
+      <c r="E203" s="2">
+        <v>8</v>
+      </c>
+      <c r="F203" s="2">
+        <v>0</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="2">
+        <v>203</v>
+      </c>
+      <c r="C204" s="2">
+        <v>203</v>
+      </c>
+      <c r="D204" s="2">
+        <v>7</v>
+      </c>
+      <c r="E204" s="2">
+        <v>4</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0</v>
+      </c>
+      <c r="G204" s="2">
+        <v>3</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="2">
+        <v>204</v>
+      </c>
+      <c r="C205" s="2">
+        <v>204</v>
+      </c>
+      <c r="D205" s="2">
+        <v>9</v>
+      </c>
+      <c r="E205" s="2">
+        <v>6</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0</v>
+      </c>
+      <c r="G205" s="2">
+        <v>6</v>
+      </c>
+      <c r="H205" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="2">
+        <v>205</v>
+      </c>
+      <c r="C206" s="2">
+        <v>205</v>
+      </c>
+      <c r="D206" s="2">
+        <v>9</v>
+      </c>
+      <c r="E206" s="2">
+        <v>9</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="2">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2">
+        <v>206</v>
+      </c>
+      <c r="D207" s="2">
+        <v>5</v>
+      </c>
+      <c r="E207" s="2">
+        <v>7</v>
+      </c>
+      <c r="F207" s="2">
+        <v>7</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0</v>
+      </c>
+      <c r="H207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="2">
+        <v>207</v>
+      </c>
+      <c r="C208" s="2">
+        <v>207</v>
+      </c>
+      <c r="D208" s="2">
+        <v>6</v>
+      </c>
+      <c r="E208" s="2">
+        <v>8</v>
+      </c>
+      <c r="F208" s="2">
+        <v>9</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="2">
+        <v>208</v>
+      </c>
+      <c r="C209" s="2">
+        <v>208</v>
+      </c>
+      <c r="D209" s="2">
+        <v>10</v>
+      </c>
+      <c r="E209" s="2">
+        <v>6</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0</v>
+      </c>
+      <c r="G209" s="2">
+        <v>3</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="2">
+        <v>209</v>
+      </c>
+      <c r="C210" s="2">
+        <v>209</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2</v>
+      </c>
+      <c r="E210" s="2">
+        <v>10</v>
+      </c>
+      <c r="F210" s="2">
+        <v>8</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="2">
+        <v>210</v>
+      </c>
+      <c r="C211" s="2">
+        <v>210</v>
+      </c>
+      <c r="D211" s="2">
+        <v>9</v>
+      </c>
+      <c r="E211" s="2">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2">
+        <v>6</v>
+      </c>
+      <c r="G211" s="2">
+        <v>8</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="2">
+        <v>211</v>
+      </c>
+      <c r="C212" s="2">
+        <v>211</v>
+      </c>
+      <c r="D212" s="2">
+        <v>7</v>
+      </c>
+      <c r="E212" s="2">
+        <v>6</v>
+      </c>
+      <c r="F212" s="2">
+        <v>0</v>
+      </c>
+      <c r="G212" s="2">
+        <v>6</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="2">
+        <v>212</v>
+      </c>
+      <c r="C213" s="2">
+        <v>212</v>
+      </c>
+      <c r="D213" s="2">
+        <v>9</v>
+      </c>
+      <c r="E213" s="2">
+        <v>10</v>
+      </c>
+      <c r="F213" s="2">
+        <v>0</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+      <c r="H213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="2">
+        <v>213</v>
+      </c>
+      <c r="C214" s="2">
+        <v>213</v>
+      </c>
+      <c r="D214" s="2">
+        <v>9</v>
+      </c>
+      <c r="E214" s="2">
+        <v>9</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="2">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2">
+        <v>214</v>
+      </c>
+      <c r="D215" s="2">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2">
+        <v>7</v>
+      </c>
+      <c r="F215" s="2">
+        <v>7</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="2">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2">
+        <v>215</v>
+      </c>
+      <c r="D216" s="2">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2">
+        <v>8</v>
+      </c>
+      <c r="F216" s="2">
+        <v>9</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="2">
+        <v>216</v>
+      </c>
+      <c r="C217" s="2">
+        <v>216</v>
+      </c>
+      <c r="D217" s="2">
+        <v>10</v>
+      </c>
+      <c r="E217" s="2">
+        <v>6</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0</v>
+      </c>
+      <c r="G217" s="2">
+        <v>3</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="2">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2">
+        <v>217</v>
+      </c>
+      <c r="D218" s="2">
+        <v>2</v>
+      </c>
+      <c r="E218" s="2">
+        <v>8</v>
+      </c>
+      <c r="F218" s="2">
+        <v>8</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0</v>
+      </c>
+      <c r="H218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="2">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2">
+        <v>218</v>
+      </c>
+      <c r="D219" s="2">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2">
+        <v>5</v>
+      </c>
+      <c r="F219" s="2">
+        <v>6</v>
+      </c>
+      <c r="G219" s="2">
+        <v>8</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="2">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2">
+        <v>219</v>
+      </c>
+      <c r="D220" s="2">
+        <v>7</v>
+      </c>
+      <c r="E220" s="2">
+        <v>6</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0</v>
+      </c>
+      <c r="G220" s="2">
+        <v>6</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="2">
+        <v>220</v>
+      </c>
+      <c r="C221" s="2">
+        <v>220</v>
+      </c>
+      <c r="D221" s="2">
+        <v>9</v>
+      </c>
+      <c r="E221" s="2">
+        <v>10</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+      <c r="H221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="2">
+        <v>221</v>
+      </c>
+      <c r="C222" s="2">
+        <v>221</v>
+      </c>
+      <c r="D222" s="2">
+        <v>10</v>
+      </c>
+      <c r="E222" s="2">
+        <v>6</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0</v>
+      </c>
+      <c r="G222" s="2">
+        <v>3</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="2">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2">
+        <v>222</v>
+      </c>
+      <c r="D223" s="2">
+        <v>2</v>
+      </c>
+      <c r="E223" s="2">
+        <v>10</v>
+      </c>
+      <c r="F223" s="2">
+        <v>8</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="2">
+        <v>223</v>
+      </c>
+      <c r="C224" s="2">
+        <v>223</v>
+      </c>
+      <c r="D224" s="2">
+        <v>9</v>
+      </c>
+      <c r="E224" s="2">
+        <v>5</v>
+      </c>
+      <c r="F224" s="2">
+        <v>6</v>
+      </c>
+      <c r="G224" s="2">
+        <v>8</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="2">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2">
+        <v>224</v>
+      </c>
+      <c r="D225" s="2">
+        <v>7</v>
+      </c>
+      <c r="E225" s="2">
+        <v>6</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0</v>
+      </c>
+      <c r="G225" s="2">
+        <v>6</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="2">
+        <v>225</v>
+      </c>
+      <c r="C226" s="2">
+        <v>225</v>
+      </c>
+      <c r="D226" s="2">
+        <v>9</v>
+      </c>
+      <c r="E226" s="2">
+        <v>10</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="2">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2">
+        <v>226</v>
+      </c>
+      <c r="D227" s="2">
+        <v>9</v>
+      </c>
+      <c r="E227" s="2">
+        <v>9</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="2">
+        <v>227</v>
+      </c>
+      <c r="C228" s="2">
+        <v>227</v>
+      </c>
+      <c r="D228" s="2">
+        <v>5</v>
+      </c>
+      <c r="E228" s="2">
+        <v>7</v>
+      </c>
+      <c r="F228" s="2">
+        <v>7</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0</v>
+      </c>
+      <c r="H228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="2">
+        <v>228</v>
+      </c>
+      <c r="C229" s="2">
+        <v>228</v>
+      </c>
+      <c r="D229" s="2">
+        <v>8</v>
+      </c>
+      <c r="E229" s="2">
+        <v>8</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="2">
+        <v>229</v>
+      </c>
+      <c r="C230" s="2">
+        <v>229</v>
+      </c>
+      <c r="D230" s="2">
+        <v>9</v>
+      </c>
+      <c r="E230" s="2">
+        <v>5</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0</v>
+      </c>
+      <c r="G230" s="2">
+        <v>8</v>
+      </c>
+      <c r="H230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="2">
+        <v>230</v>
+      </c>
+      <c r="C231" s="2">
+        <v>230</v>
+      </c>
+      <c r="D231" s="2">
+        <v>3</v>
+      </c>
+      <c r="E231" s="2">
+        <v>9</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="2">
+        <v>231</v>
+      </c>
+      <c r="C232" s="2">
+        <v>231</v>
+      </c>
+      <c r="D232" s="2">
+        <v>9</v>
+      </c>
+      <c r="E232" s="2">
+        <v>7</v>
+      </c>
+      <c r="F232" s="2">
+        <v>0</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="2">
+        <v>232</v>
+      </c>
+      <c r="C233" s="2">
+        <v>232</v>
+      </c>
+      <c r="D233" s="2">
+        <v>8</v>
+      </c>
+      <c r="E233" s="2">
+        <v>8</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0</v>
+      </c>
+      <c r="G233" s="2">
+        <v>0</v>
+      </c>
+      <c r="H233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="2">
+        <v>233</v>
+      </c>
+      <c r="C234" s="2">
+        <v>233</v>
+      </c>
+      <c r="D234" s="2">
+        <v>9</v>
+      </c>
+      <c r="E234" s="2">
+        <v>5</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0</v>
+      </c>
+      <c r="G234" s="2">
+        <v>8</v>
+      </c>
+      <c r="H234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="2">
+        <v>234</v>
+      </c>
+      <c r="C235" s="2">
+        <v>234</v>
+      </c>
+      <c r="D235" s="2">
+        <v>3</v>
+      </c>
+      <c r="E235" s="2">
+        <v>9</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0</v>
+      </c>
+      <c r="H235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="2">
+        <v>235</v>
+      </c>
+      <c r="C236" s="2">
+        <v>235</v>
+      </c>
+      <c r="D236" s="2">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2">
+        <v>7</v>
+      </c>
+      <c r="F236" s="2">
+        <v>0</v>
+      </c>
+      <c r="G236" s="2">
+        <v>0</v>
+      </c>
+      <c r="H236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="2">
+        <v>236</v>
+      </c>
+      <c r="C237" s="2">
+        <v>236</v>
+      </c>
+      <c r="D237" s="2">
+        <v>9</v>
+      </c>
+      <c r="E237" s="2">
+        <v>5</v>
+      </c>
+      <c r="F237" s="2">
+        <v>0</v>
+      </c>
+      <c r="G237" s="2">
+        <v>8</v>
+      </c>
+      <c r="H237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="2">
+        <v>237</v>
+      </c>
+      <c r="C238" s="2">
+        <v>237</v>
+      </c>
+      <c r="D238" s="2">
+        <v>3</v>
+      </c>
+      <c r="E238" s="2">
+        <v>9</v>
+      </c>
+      <c r="F238" s="2">
+        <v>0</v>
+      </c>
+      <c r="G238" s="2">
+        <v>0</v>
+      </c>
+      <c r="H238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="2">
+        <v>238</v>
+      </c>
+      <c r="C239" s="2">
+        <v>238</v>
+      </c>
+      <c r="D239" s="2">
+        <v>9</v>
+      </c>
+      <c r="E239" s="2">
+        <v>7</v>
+      </c>
+      <c r="F239" s="2">
+        <v>0</v>
+      </c>
+      <c r="G239" s="2">
+        <v>0</v>
+      </c>
+      <c r="H239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="2">
+        <v>239</v>
+      </c>
+      <c r="C240" s="2">
+        <v>239</v>
+      </c>
+      <c r="D240" s="2">
+        <v>8</v>
+      </c>
+      <c r="E240" s="2">
+        <v>8</v>
+      </c>
+      <c r="F240" s="2">
+        <v>0</v>
+      </c>
+      <c r="G240" s="2">
+        <v>0</v>
+      </c>
+      <c r="H240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="2">
+        <v>240</v>
+      </c>
+      <c r="C241" s="2">
+        <v>240</v>
+      </c>
+      <c r="D241" s="2">
+        <v>9</v>
+      </c>
+      <c r="E241" s="2">
+        <v>5</v>
+      </c>
+      <c r="F241" s="2">
+        <v>0</v>
+      </c>
+      <c r="G241" s="2">
+        <v>8</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="2">
+        <v>241</v>
+      </c>
+      <c r="C242" s="2">
+        <v>241</v>
+      </c>
+      <c r="D242" s="2">
+        <v>7</v>
+      </c>
+      <c r="E242" s="2">
+        <v>8</v>
+      </c>
+      <c r="F242" s="2">
+        <v>0</v>
+      </c>
+      <c r="G242" s="2">
+        <v>0</v>
+      </c>
+      <c r="H242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="2">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2">
+        <v>242</v>
+      </c>
+      <c r="D243" s="2">
+        <v>3</v>
+      </c>
+      <c r="E243" s="2">
+        <v>8</v>
+      </c>
+      <c r="F243" s="2">
+        <v>5</v>
+      </c>
+      <c r="G243" s="2">
+        <v>0</v>
+      </c>
+      <c r="H243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="2">
+        <v>243</v>
+      </c>
+      <c r="C244" s="2">
+        <v>243</v>
+      </c>
+      <c r="D244" s="2">
+        <v>4</v>
+      </c>
+      <c r="E244" s="2">
+        <v>4</v>
+      </c>
+      <c r="F244" s="2">
+        <v>6</v>
+      </c>
+      <c r="G244" s="2">
+        <v>4</v>
+      </c>
+      <c r="H244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="2">
+        <v>244</v>
+      </c>
+      <c r="C245" s="2">
+        <v>244</v>
+      </c>
+      <c r="D245" s="2">
+        <v>7</v>
+      </c>
+      <c r="E245" s="2">
+        <v>6</v>
+      </c>
+      <c r="F245" s="2">
+        <v>0</v>
+      </c>
+      <c r="G245" s="2">
+        <v>5</v>
+      </c>
+      <c r="H245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="2">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2">
+        <v>245</v>
+      </c>
+      <c r="D246" s="2">
+        <v>6</v>
+      </c>
+      <c r="E246" s="2">
+        <v>4</v>
+      </c>
+      <c r="F246" s="2">
+        <v>8</v>
+      </c>
+      <c r="G246" s="2">
+        <v>4</v>
+      </c>
+      <c r="H246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="2">
+        <v>246</v>
+      </c>
+      <c r="C247" s="2">
+        <v>246</v>
+      </c>
+      <c r="D247" s="2">
+        <v>9</v>
+      </c>
+      <c r="E247" s="2">
+        <v>10</v>
+      </c>
+      <c r="F247" s="2">
+        <v>0</v>
+      </c>
+      <c r="G247" s="2">
+        <v>0</v>
+      </c>
+      <c r="H247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="2">
+        <v>247</v>
+      </c>
+      <c r="C248" s="2">
+        <v>247</v>
+      </c>
+      <c r="D248" s="2">
+        <v>8</v>
+      </c>
+      <c r="E248" s="2">
+        <v>8</v>
+      </c>
+      <c r="F248" s="2">
+        <v>0</v>
+      </c>
+      <c r="G248" s="2">
+        <v>0</v>
+      </c>
+      <c r="H248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="2">
+        <v>248</v>
+      </c>
+      <c r="C249" s="2">
+        <v>248</v>
+      </c>
+      <c r="D249" s="2">
+        <v>9</v>
+      </c>
+      <c r="E249" s="2">
+        <v>5</v>
+      </c>
+      <c r="F249" s="2">
+        <v>0</v>
+      </c>
+      <c r="G249" s="2">
+        <v>8</v>
+      </c>
+      <c r="H249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="2">
+        <v>249</v>
+      </c>
+      <c r="C250" s="2">
+        <v>249</v>
+      </c>
+      <c r="D250" s="2">
+        <v>7</v>
+      </c>
+      <c r="E250" s="2">
+        <v>8</v>
+      </c>
+      <c r="F250" s="2">
+        <v>0</v>
+      </c>
+      <c r="G250" s="2">
+        <v>0</v>
+      </c>
+      <c r="H250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="2">
+        <v>250</v>
+      </c>
+      <c r="C251" s="2">
+        <v>250</v>
+      </c>
+      <c r="D251" s="2">
+        <v>3</v>
+      </c>
+      <c r="E251" s="2">
+        <v>8</v>
+      </c>
+      <c r="F251" s="2">
+        <v>5</v>
+      </c>
+      <c r="G251" s="2">
+        <v>0</v>
+      </c>
+      <c r="H251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="2">
+        <v>251</v>
+      </c>
+      <c r="C252" s="2">
+        <v>251</v>
+      </c>
+      <c r="D252" s="2">
+        <v>4</v>
+      </c>
+      <c r="E252" s="2">
+        <v>4</v>
+      </c>
+      <c r="F252" s="2">
+        <v>6</v>
+      </c>
+      <c r="G252" s="2">
+        <v>4</v>
+      </c>
+      <c r="H252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="2">
+        <v>252</v>
+      </c>
+      <c r="C253" s="2">
+        <v>252</v>
+      </c>
+      <c r="D253" s="2">
+        <v>8</v>
+      </c>
+      <c r="E253" s="2">
+        <v>8</v>
+      </c>
+      <c r="F253" s="2">
+        <v>0</v>
+      </c>
+      <c r="G253" s="2">
+        <v>0</v>
+      </c>
+      <c r="H253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="2">
+        <v>253</v>
+      </c>
+      <c r="C254" s="2">
+        <v>253</v>
+      </c>
+      <c r="D254" s="2">
+        <v>9</v>
+      </c>
+      <c r="E254" s="2">
+        <v>5</v>
+      </c>
+      <c r="F254" s="2">
+        <v>0</v>
+      </c>
+      <c r="G254" s="2">
+        <v>8</v>
+      </c>
+      <c r="H254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="2">
+        <v>254</v>
+      </c>
+      <c r="C255" s="2">
+        <v>254</v>
+      </c>
+      <c r="D255" s="2">
+        <v>7</v>
+      </c>
+      <c r="E255" s="2">
+        <v>8</v>
+      </c>
+      <c r="F255" s="2">
+        <v>0</v>
+      </c>
+      <c r="G255" s="2">
+        <v>0</v>
+      </c>
+      <c r="H255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="2">
+        <v>255</v>
+      </c>
+      <c r="C256" s="2">
+        <v>255</v>
+      </c>
+      <c r="D256" s="2">
+        <v>10</v>
+      </c>
+      <c r="E256" s="2">
+        <v>6</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0</v>
+      </c>
+      <c r="G256" s="2">
+        <v>3</v>
+      </c>
+      <c r="H256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="2">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2">
+        <v>256</v>
+      </c>
+      <c r="D257" s="2">
+        <v>2</v>
+      </c>
+      <c r="E257" s="2">
+        <v>10</v>
+      </c>
+      <c r="F257" s="2">
+        <v>8</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0</v>
+      </c>
+      <c r="H257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="2">
+        <v>257</v>
+      </c>
+      <c r="C258" s="2">
+        <v>257</v>
+      </c>
+      <c r="D258" s="2">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2">
+        <v>9</v>
+      </c>
+      <c r="F258" s="2">
+        <v>0</v>
+      </c>
+      <c r="G258" s="2">
+        <v>0</v>
+      </c>
+      <c r="H258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="2">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2">
+        <v>258</v>
+      </c>
+      <c r="D259" s="2">
+        <v>9</v>
+      </c>
+      <c r="E259" s="2">
+        <v>7</v>
+      </c>
+      <c r="F259" s="2">
+        <v>0</v>
+      </c>
+      <c r="G259" s="2">
+        <v>0</v>
+      </c>
+      <c r="H259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="2">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2">
+        <v>259</v>
+      </c>
+      <c r="D260" s="2">
+        <v>9</v>
+      </c>
+      <c r="E260" s="2">
+        <v>5</v>
+      </c>
+      <c r="F260" s="2">
+        <v>0</v>
+      </c>
+      <c r="G260" s="2">
+        <v>8</v>
+      </c>
+      <c r="H260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="2">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2">
+        <v>260</v>
+      </c>
+      <c r="D261" s="2">
+        <v>3</v>
+      </c>
+      <c r="E261" s="2">
+        <v>9</v>
+      </c>
+      <c r="F261" s="2">
+        <v>0</v>
+      </c>
+      <c r="G261" s="2">
+        <v>0</v>
+      </c>
+      <c r="H261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="2">
+        <v>261</v>
+      </c>
+      <c r="C262" s="2">
+        <v>261</v>
+      </c>
+      <c r="D262" s="2">
+        <v>9</v>
+      </c>
+      <c r="E262" s="2">
+        <v>7</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0</v>
+      </c>
+      <c r="G262" s="2">
+        <v>0</v>
+      </c>
+      <c r="H262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="2">
+        <v>262</v>
+      </c>
+      <c r="C263" s="2">
+        <v>262</v>
+      </c>
+      <c r="D263" s="2">
+        <v>8</v>
+      </c>
+      <c r="E263" s="2">
+        <v>8</v>
+      </c>
+      <c r="F263" s="2">
+        <v>0</v>
+      </c>
+      <c r="G263" s="2">
+        <v>0</v>
+      </c>
+      <c r="H263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="2">
+        <v>263</v>
+      </c>
+      <c r="C264" s="2">
+        <v>263</v>
+      </c>
+      <c r="D264" s="2">
+        <v>9</v>
+      </c>
+      <c r="E264" s="2">
+        <v>5</v>
+      </c>
+      <c r="F264" s="2">
+        <v>0</v>
+      </c>
+      <c r="G264" s="2">
+        <v>8</v>
+      </c>
+      <c r="H264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="2">
+        <v>264</v>
+      </c>
+      <c r="C265" s="2">
+        <v>264</v>
+      </c>
+      <c r="D265" s="2">
+        <v>7</v>
+      </c>
+      <c r="E265" s="2">
+        <v>8</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0</v>
+      </c>
+      <c r="G265" s="2">
+        <v>0</v>
+      </c>
+      <c r="H265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="2">
+        <v>265</v>
+      </c>
+      <c r="C266" s="2">
+        <v>265</v>
+      </c>
+      <c r="D266" s="2">
+        <v>3</v>
+      </c>
+      <c r="E266" s="2">
+        <v>8</v>
+      </c>
+      <c r="F266" s="2">
+        <v>5</v>
+      </c>
+      <c r="G266" s="2">
+        <v>0</v>
+      </c>
+      <c r="H266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="2">
+        <v>266</v>
+      </c>
+      <c r="C267" s="2">
+        <v>266</v>
+      </c>
+      <c r="D267" s="2">
+        <v>9</v>
+      </c>
+      <c r="E267" s="2">
+        <v>5</v>
+      </c>
+      <c r="F267" s="2">
+        <v>0</v>
+      </c>
+      <c r="G267" s="2">
+        <v>8</v>
+      </c>
+      <c r="H267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="2">
+        <v>267</v>
+      </c>
+      <c r="C268" s="2">
+        <v>267</v>
+      </c>
+      <c r="D268" s="2">
+        <v>9</v>
+      </c>
+      <c r="E268" s="2">
+        <v>5</v>
+      </c>
+      <c r="F268" s="2">
+        <v>0</v>
+      </c>
+      <c r="G268" s="2">
+        <v>8</v>
+      </c>
+      <c r="H268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="2">
+        <v>268</v>
+      </c>
+      <c r="C269" s="2">
+        <v>268</v>
+      </c>
+      <c r="D269" s="2">
+        <v>3</v>
+      </c>
+      <c r="E269" s="2">
+        <v>9</v>
+      </c>
+      <c r="F269" s="2">
+        <v>0</v>
+      </c>
+      <c r="G269" s="2">
+        <v>0</v>
+      </c>
+      <c r="H269" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="2">
+        <v>269</v>
+      </c>
+      <c r="C270" s="2">
+        <v>269</v>
+      </c>
+      <c r="D270" s="2">
+        <v>9</v>
+      </c>
+      <c r="E270" s="2">
+        <v>7</v>
+      </c>
+      <c r="F270" s="2">
+        <v>0</v>
+      </c>
+      <c r="G270" s="2">
+        <v>0</v>
+      </c>
+      <c r="H270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="2">
+        <v>270</v>
+      </c>
+      <c r="C271" s="2">
+        <v>270</v>
+      </c>
+      <c r="D271" s="2">
+        <v>9</v>
+      </c>
+      <c r="E271" s="2">
+        <v>10</v>
+      </c>
+      <c r="F271" s="2">
+        <v>0</v>
+      </c>
+      <c r="G271" s="2">
+        <v>0</v>
+      </c>
+      <c r="H271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B272" s="2">
+        <v>271</v>
+      </c>
+      <c r="C272" s="2">
+        <v>271</v>
+      </c>
+      <c r="D272" s="2">
+        <v>8</v>
+      </c>
+      <c r="E272" s="2">
+        <v>8</v>
+      </c>
+      <c r="F272" s="2">
+        <v>0</v>
+      </c>
+      <c r="G272" s="2">
+        <v>0</v>
+      </c>
+      <c r="H272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="2">
+        <v>272</v>
+      </c>
+      <c r="C273" s="2">
+        <v>272</v>
+      </c>
+      <c r="D273" s="2">
+        <v>9</v>
+      </c>
+      <c r="E273" s="2">
+        <v>5</v>
+      </c>
+      <c r="F273" s="2">
+        <v>0</v>
+      </c>
+      <c r="G273" s="2">
+        <v>8</v>
+      </c>
+      <c r="H273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="2">
+        <v>273</v>
+      </c>
+      <c r="C274" s="2">
+        <v>273</v>
+      </c>
+      <c r="D274" s="2">
+        <v>7</v>
+      </c>
+      <c r="E274" s="2">
+        <v>8</v>
+      </c>
+      <c r="F274" s="2">
+        <v>0</v>
+      </c>
+      <c r="G274" s="2">
+        <v>0</v>
+      </c>
+      <c r="H274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="2">
+        <v>274</v>
+      </c>
+      <c r="C275" s="2">
+        <v>274</v>
+      </c>
+      <c r="D275" s="2">
+        <v>3</v>
+      </c>
+      <c r="E275" s="2">
+        <v>8</v>
+      </c>
+      <c r="F275" s="2">
+        <v>5</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0</v>
+      </c>
+      <c r="H275" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="2">
+        <v>275</v>
+      </c>
+      <c r="C276" s="2">
+        <v>275</v>
+      </c>
+      <c r="D276" s="2">
+        <v>4</v>
+      </c>
+      <c r="E276" s="2">
+        <v>4</v>
+      </c>
+      <c r="F276" s="2">
+        <v>6</v>
+      </c>
+      <c r="G276" s="2">
+        <v>4</v>
+      </c>
+      <c r="H276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="2">
+        <v>276</v>
+      </c>
+      <c r="C277" s="2">
+        <v>276</v>
+      </c>
+      <c r="D277" s="2">
+        <v>8</v>
+      </c>
+      <c r="E277" s="2">
+        <v>8</v>
+      </c>
+      <c r="F277" s="2">
+        <v>0</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0</v>
+      </c>
+      <c r="H277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="2">
+        <v>277</v>
+      </c>
+      <c r="C278" s="2">
+        <v>277</v>
+      </c>
+      <c r="D278" s="2">
+        <v>9</v>
+      </c>
+      <c r="E278" s="2">
+        <v>5</v>
+      </c>
+      <c r="F278" s="2">
+        <v>0</v>
+      </c>
+      <c r="G278" s="2">
+        <v>8</v>
+      </c>
+      <c r="H278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="2">
+        <v>278</v>
+      </c>
+      <c r="C279" s="2">
+        <v>278</v>
+      </c>
+      <c r="D279" s="2">
+        <v>9</v>
+      </c>
+      <c r="E279" s="2">
+        <v>7</v>
+      </c>
+      <c r="F279" s="2">
+        <v>0</v>
+      </c>
+      <c r="G279" s="2">
+        <v>0</v>
+      </c>
+      <c r="H279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="2">
+        <v>279</v>
+      </c>
+      <c r="C280" s="2">
+        <v>279</v>
+      </c>
+      <c r="D280" s="2">
+        <v>9</v>
+      </c>
+      <c r="E280" s="2">
+        <v>5</v>
+      </c>
+      <c r="F280" s="2">
+        <v>0</v>
+      </c>
+      <c r="G280" s="2">
+        <v>8</v>
+      </c>
+      <c r="H280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="2">
+        <v>280</v>
+      </c>
+      <c r="C281" s="2">
+        <v>280</v>
+      </c>
+      <c r="D281" s="2">
+        <v>3</v>
+      </c>
+      <c r="E281" s="2">
+        <v>9</v>
+      </c>
+      <c r="F281" s="2">
+        <v>0</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0</v>
+      </c>
+      <c r="H281" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/02-PROYECTO/04_DOCS/Calificaciones.xlsx
+++ b/02-PROYECTO/04_DOCS/Calificaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\07-SQL-GIT\02-PROYECTO\04_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDE984-7FC5-467D-964F-129B755C1FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A993F7-008F-44AF-BCEF-04F7B44ABB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{2999E0EE-D397-4155-8909-EFA676B4A508}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1933EE98-3421-49D1-9A23-6DAC0A6D7611}">
-  <dimension ref="B1:M281"/>
+  <dimension ref="B1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6901,6 +6901,466 @@
         <v>1</v>
       </c>
     </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B282" s="2">
+        <v>281</v>
+      </c>
+      <c r="C282" s="2">
+        <v>281</v>
+      </c>
+      <c r="D282" s="2">
+        <v>9</v>
+      </c>
+      <c r="E282" s="2">
+        <v>7</v>
+      </c>
+      <c r="F282" s="2">
+        <v>0</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B283" s="2">
+        <v>282</v>
+      </c>
+      <c r="C283" s="2">
+        <v>282</v>
+      </c>
+      <c r="D283" s="2">
+        <v>9</v>
+      </c>
+      <c r="E283" s="2">
+        <v>5</v>
+      </c>
+      <c r="F283" s="2">
+        <v>0</v>
+      </c>
+      <c r="G283" s="2">
+        <v>8</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B284" s="2">
+        <v>283</v>
+      </c>
+      <c r="C284" s="2">
+        <v>283</v>
+      </c>
+      <c r="D284" s="2">
+        <v>3</v>
+      </c>
+      <c r="E284" s="2">
+        <v>9</v>
+      </c>
+      <c r="F284" s="2">
+        <v>0</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0</v>
+      </c>
+      <c r="H284" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="2">
+        <v>284</v>
+      </c>
+      <c r="C285" s="2">
+        <v>284</v>
+      </c>
+      <c r="D285" s="2">
+        <v>2</v>
+      </c>
+      <c r="E285" s="2">
+        <v>10</v>
+      </c>
+      <c r="F285" s="2">
+        <v>9</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0</v>
+      </c>
+      <c r="H285" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="2">
+        <v>285</v>
+      </c>
+      <c r="C286" s="2">
+        <v>285</v>
+      </c>
+      <c r="D286" s="2">
+        <v>9</v>
+      </c>
+      <c r="E286" s="2">
+        <v>7</v>
+      </c>
+      <c r="F286" s="2">
+        <v>0</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0</v>
+      </c>
+      <c r="H286" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="2">
+        <v>286</v>
+      </c>
+      <c r="C287" s="2">
+        <v>286</v>
+      </c>
+      <c r="D287" s="2">
+        <v>9</v>
+      </c>
+      <c r="E287" s="2">
+        <v>7</v>
+      </c>
+      <c r="F287" s="2">
+        <v>0</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0</v>
+      </c>
+      <c r="H287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="2">
+        <v>287</v>
+      </c>
+      <c r="C288" s="2">
+        <v>287</v>
+      </c>
+      <c r="D288" s="2">
+        <v>5</v>
+      </c>
+      <c r="E288" s="2">
+        <v>10</v>
+      </c>
+      <c r="F288" s="2">
+        <v>5</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+      <c r="H288" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="2">
+        <v>288</v>
+      </c>
+      <c r="C289" s="2">
+        <v>288</v>
+      </c>
+      <c r="D289" s="2">
+        <v>4</v>
+      </c>
+      <c r="E289" s="2">
+        <v>10</v>
+      </c>
+      <c r="F289" s="2">
+        <v>8</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="2">
+        <v>289</v>
+      </c>
+      <c r="C290" s="2">
+        <v>289</v>
+      </c>
+      <c r="D290" s="2">
+        <v>5</v>
+      </c>
+      <c r="E290" s="2">
+        <v>8</v>
+      </c>
+      <c r="F290" s="2">
+        <v>9</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0</v>
+      </c>
+      <c r="H290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="2">
+        <v>290</v>
+      </c>
+      <c r="C291" s="2">
+        <v>290</v>
+      </c>
+      <c r="D291" s="2">
+        <v>3</v>
+      </c>
+      <c r="E291" s="2">
+        <v>7</v>
+      </c>
+      <c r="F291" s="2">
+        <v>8</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="2">
+        <v>291</v>
+      </c>
+      <c r="C292" s="2">
+        <v>291</v>
+      </c>
+      <c r="D292" s="2">
+        <v>5</v>
+      </c>
+      <c r="E292" s="2">
+        <v>6</v>
+      </c>
+      <c r="F292" s="2">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2">
+        <v>8</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="2">
+        <v>292</v>
+      </c>
+      <c r="C293" s="2">
+        <v>292</v>
+      </c>
+      <c r="D293" s="2">
+        <v>8</v>
+      </c>
+      <c r="E293" s="2">
+        <v>4</v>
+      </c>
+      <c r="F293" s="2">
+        <v>0</v>
+      </c>
+      <c r="G293" s="2">
+        <v>4</v>
+      </c>
+      <c r="H293" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="2">
+        <v>293</v>
+      </c>
+      <c r="C294" s="2">
+        <v>293</v>
+      </c>
+      <c r="D294" s="2">
+        <v>8</v>
+      </c>
+      <c r="E294" s="2">
+        <v>5</v>
+      </c>
+      <c r="F294" s="2">
+        <v>0</v>
+      </c>
+      <c r="G294" s="2">
+        <v>4</v>
+      </c>
+      <c r="H294" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B295" s="2">
+        <v>294</v>
+      </c>
+      <c r="C295" s="2">
+        <v>294</v>
+      </c>
+      <c r="D295" s="2">
+        <v>10</v>
+      </c>
+      <c r="E295" s="2">
+        <v>10</v>
+      </c>
+      <c r="F295" s="2">
+        <v>0</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0</v>
+      </c>
+      <c r="H295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" s="2">
+        <v>295</v>
+      </c>
+      <c r="C296" s="2">
+        <v>295</v>
+      </c>
+      <c r="D296" s="2">
+        <v>6</v>
+      </c>
+      <c r="E296" s="2">
+        <v>7</v>
+      </c>
+      <c r="F296" s="2">
+        <v>6</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B297" s="2">
+        <v>296</v>
+      </c>
+      <c r="C297" s="2">
+        <v>296</v>
+      </c>
+      <c r="D297" s="2">
+        <v>7</v>
+      </c>
+      <c r="E297" s="2">
+        <v>8</v>
+      </c>
+      <c r="F297" s="2">
+        <v>0</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0</v>
+      </c>
+      <c r="H297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" s="2">
+        <v>297</v>
+      </c>
+      <c r="C298" s="2">
+        <v>297</v>
+      </c>
+      <c r="D298" s="2">
+        <v>4</v>
+      </c>
+      <c r="E298" s="2">
+        <v>10</v>
+      </c>
+      <c r="F298" s="2">
+        <v>8</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" s="2">
+        <v>298</v>
+      </c>
+      <c r="C299" s="2">
+        <v>298</v>
+      </c>
+      <c r="D299" s="2">
+        <v>5</v>
+      </c>
+      <c r="E299" s="2">
+        <v>8</v>
+      </c>
+      <c r="F299" s="2">
+        <v>9</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" s="2">
+        <v>299</v>
+      </c>
+      <c r="C300" s="2">
+        <v>299</v>
+      </c>
+      <c r="D300" s="2">
+        <v>3</v>
+      </c>
+      <c r="E300" s="2">
+        <v>7</v>
+      </c>
+      <c r="F300" s="2">
+        <v>8</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0</v>
+      </c>
+      <c r="H300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B301" s="2">
+        <v>300</v>
+      </c>
+      <c r="C301" s="2">
+        <v>300</v>
+      </c>
+      <c r="D301" s="2">
+        <v>5</v>
+      </c>
+      <c r="E301" s="2">
+        <v>6</v>
+      </c>
+      <c r="F301" s="2">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2">
+        <v>8</v>
+      </c>
+      <c r="H301" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02-PROYECTO/04_DOCS/Calificaciones.xlsx
+++ b/02-PROYECTO/04_DOCS/Calificaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\07-SQL-GIT\02-PROYECTO\04_DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erram\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A993F7-008F-44AF-BCEF-04F7B44ABB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2F508-A943-465C-A049-081B1B530DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{2999E0EE-D397-4155-8909-EFA676B4A508}"/>
+    <workbookView xWindow="3825" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{2999E0EE-D397-4155-8909-EFA676B4A508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1933EE98-3421-49D1-9A23-6DAC0A6D7611}">
-  <dimension ref="B1:M301"/>
+  <dimension ref="B1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F302" sqref="F302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
         <v>9</v>
@@ -2930,7 +2930,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2">
         <v>10</v>
@@ -3554,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -4138,3226 +4138,6 @@
         <v>0</v>
       </c>
       <c r="H161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="2">
-        <v>161</v>
-      </c>
-      <c r="C162" s="2">
-        <v>161</v>
-      </c>
-      <c r="D162" s="2">
-        <v>2</v>
-      </c>
-      <c r="E162" s="2">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2">
-        <v>8</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-      <c r="H162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="2">
-        <v>162</v>
-      </c>
-      <c r="C163" s="2">
-        <v>162</v>
-      </c>
-      <c r="D163" s="2">
-        <v>9</v>
-      </c>
-      <c r="E163" s="2">
-        <v>5</v>
-      </c>
-      <c r="F163" s="2">
-        <v>6</v>
-      </c>
-      <c r="G163" s="2">
-        <v>8</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="2">
-        <v>163</v>
-      </c>
-      <c r="C164" s="2">
-        <v>163</v>
-      </c>
-      <c r="D164" s="2">
-        <v>7</v>
-      </c>
-      <c r="E164" s="2">
-        <v>6</v>
-      </c>
-      <c r="F164" s="2">
-        <v>0</v>
-      </c>
-      <c r="G164" s="2">
-        <v>6</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="2">
-        <v>164</v>
-      </c>
-      <c r="C165" s="2">
-        <v>164</v>
-      </c>
-      <c r="D165" s="2">
-        <v>9</v>
-      </c>
-      <c r="E165" s="2">
-        <v>10</v>
-      </c>
-      <c r="F165" s="2">
-        <v>0</v>
-      </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="2">
-        <v>165</v>
-      </c>
-      <c r="C166" s="2">
-        <v>165</v>
-      </c>
-      <c r="D166" s="2">
-        <v>6</v>
-      </c>
-      <c r="E166" s="2">
-        <v>10</v>
-      </c>
-      <c r="F166" s="2">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="2">
-        <v>166</v>
-      </c>
-      <c r="C167" s="2">
-        <v>166</v>
-      </c>
-      <c r="D167" s="2">
-        <v>9</v>
-      </c>
-      <c r="E167" s="2">
-        <v>8</v>
-      </c>
-      <c r="F167" s="2">
-        <v>0</v>
-      </c>
-      <c r="G167" s="2">
-        <v>0</v>
-      </c>
-      <c r="H167" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="2">
-        <v>167</v>
-      </c>
-      <c r="C168" s="2">
-        <v>167</v>
-      </c>
-      <c r="D168" s="2">
-        <v>7</v>
-      </c>
-      <c r="E168" s="2">
-        <v>4</v>
-      </c>
-      <c r="F168" s="2">
-        <v>0</v>
-      </c>
-      <c r="G168" s="2">
-        <v>3</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="2">
-        <v>168</v>
-      </c>
-      <c r="C169" s="2">
-        <v>168</v>
-      </c>
-      <c r="D169" s="2">
-        <v>9</v>
-      </c>
-      <c r="E169" s="2">
-        <v>6</v>
-      </c>
-      <c r="F169" s="2">
-        <v>0</v>
-      </c>
-      <c r="G169" s="2">
-        <v>6</v>
-      </c>
-      <c r="H169" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="2">
-        <v>169</v>
-      </c>
-      <c r="C170" s="2">
-        <v>169</v>
-      </c>
-      <c r="D170" s="2">
-        <v>9</v>
-      </c>
-      <c r="E170" s="2">
-        <v>8</v>
-      </c>
-      <c r="F170" s="2">
-        <v>0</v>
-      </c>
-      <c r="G170" s="2">
-        <v>0</v>
-      </c>
-      <c r="H170" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="2">
-        <v>170</v>
-      </c>
-      <c r="C171" s="2">
-        <v>170</v>
-      </c>
-      <c r="D171" s="2">
-        <v>9</v>
-      </c>
-      <c r="E171" s="2">
-        <v>10</v>
-      </c>
-      <c r="F171" s="2">
-        <v>7</v>
-      </c>
-      <c r="G171" s="2">
-        <v>0</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="2">
-        <v>171</v>
-      </c>
-      <c r="C172" s="2">
-        <v>171</v>
-      </c>
-      <c r="D172" s="2">
-        <v>2</v>
-      </c>
-      <c r="E172" s="2">
-        <v>9</v>
-      </c>
-      <c r="F172" s="2">
-        <v>6</v>
-      </c>
-      <c r="G172" s="2">
-        <v>0</v>
-      </c>
-      <c r="H172" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="2">
-        <v>172</v>
-      </c>
-      <c r="C173" s="2">
-        <v>172</v>
-      </c>
-      <c r="D173" s="2">
-        <v>10</v>
-      </c>
-      <c r="E173" s="2">
-        <v>9</v>
-      </c>
-      <c r="F173" s="2">
-        <v>0</v>
-      </c>
-      <c r="G173" s="2">
-        <v>0</v>
-      </c>
-      <c r="H173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
-        <v>173</v>
-      </c>
-      <c r="C174" s="2">
-        <v>173</v>
-      </c>
-      <c r="D174" s="2">
-        <v>10</v>
-      </c>
-      <c r="E174" s="2">
-        <v>10</v>
-      </c>
-      <c r="F174" s="2">
-        <v>0</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="2">
-        <v>174</v>
-      </c>
-      <c r="C175" s="2">
-        <v>174</v>
-      </c>
-      <c r="D175" s="2">
-        <v>4</v>
-      </c>
-      <c r="E175" s="2">
-        <v>8</v>
-      </c>
-      <c r="F175" s="2">
-        <v>5</v>
-      </c>
-      <c r="G175" s="2">
-        <v>0</v>
-      </c>
-      <c r="H175" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="2">
-        <v>175</v>
-      </c>
-      <c r="C176" s="2">
-        <v>175</v>
-      </c>
-      <c r="D176" s="2">
-        <v>10</v>
-      </c>
-      <c r="E176" s="2">
-        <v>8</v>
-      </c>
-      <c r="F176" s="2">
-        <v>0</v>
-      </c>
-      <c r="G176" s="2">
-        <v>0</v>
-      </c>
-      <c r="H176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="2">
-        <v>176</v>
-      </c>
-      <c r="C177" s="2">
-        <v>176</v>
-      </c>
-      <c r="D177" s="2">
-        <v>7</v>
-      </c>
-      <c r="E177" s="2">
-        <v>8</v>
-      </c>
-      <c r="F177" s="2">
-        <v>0</v>
-      </c>
-      <c r="G177" s="2">
-        <v>0</v>
-      </c>
-      <c r="H177" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="2">
-        <v>177</v>
-      </c>
-      <c r="C178" s="2">
-        <v>177</v>
-      </c>
-      <c r="D178" s="2">
-        <v>3</v>
-      </c>
-      <c r="E178" s="2">
-        <v>8</v>
-      </c>
-      <c r="F178" s="2">
-        <v>5</v>
-      </c>
-      <c r="G178" s="2">
-        <v>0</v>
-      </c>
-      <c r="H178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" s="2">
-        <v>178</v>
-      </c>
-      <c r="C179" s="2">
-        <v>178</v>
-      </c>
-      <c r="D179" s="2">
-        <v>4</v>
-      </c>
-      <c r="E179" s="2">
-        <v>4</v>
-      </c>
-      <c r="F179" s="2">
-        <v>6</v>
-      </c>
-      <c r="G179" s="2">
-        <v>4</v>
-      </c>
-      <c r="H179" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="2">
-        <v>179</v>
-      </c>
-      <c r="C180" s="2">
-        <v>179</v>
-      </c>
-      <c r="D180" s="2">
-        <v>7</v>
-      </c>
-      <c r="E180" s="2">
-        <v>6</v>
-      </c>
-      <c r="F180" s="2">
-        <v>0</v>
-      </c>
-      <c r="G180" s="2">
-        <v>5</v>
-      </c>
-      <c r="H180" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
-        <v>180</v>
-      </c>
-      <c r="C181" s="2">
-        <v>180</v>
-      </c>
-      <c r="D181" s="2">
-        <v>6</v>
-      </c>
-      <c r="E181" s="2">
-        <v>4</v>
-      </c>
-      <c r="F181" s="2">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2">
-        <v>4</v>
-      </c>
-      <c r="H181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="2">
-        <v>181</v>
-      </c>
-      <c r="C182" s="2">
-        <v>181</v>
-      </c>
-      <c r="D182" s="2">
-        <v>9</v>
-      </c>
-      <c r="E182" s="2">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2">
-        <v>0</v>
-      </c>
-      <c r="G182" s="2">
-        <v>0</v>
-      </c>
-      <c r="H182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
-        <v>182</v>
-      </c>
-      <c r="C183" s="2">
-        <v>182</v>
-      </c>
-      <c r="D183" s="2">
-        <v>8</v>
-      </c>
-      <c r="E183" s="2">
-        <v>8</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
-        <v>0</v>
-      </c>
-      <c r="H183" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="2">
-        <v>183</v>
-      </c>
-      <c r="C184" s="2">
-        <v>183</v>
-      </c>
-      <c r="D184" s="2">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2">
-        <v>5</v>
-      </c>
-      <c r="F184" s="2">
-        <v>0</v>
-      </c>
-      <c r="G184" s="2">
-        <v>8</v>
-      </c>
-      <c r="H184" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
-        <v>184</v>
-      </c>
-      <c r="C185" s="2">
-        <v>184</v>
-      </c>
-      <c r="D185" s="2">
-        <v>3</v>
-      </c>
-      <c r="E185" s="2">
-        <v>9</v>
-      </c>
-      <c r="F185" s="2">
-        <v>0</v>
-      </c>
-      <c r="G185" s="2">
-        <v>0</v>
-      </c>
-      <c r="H185" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="2">
-        <v>185</v>
-      </c>
-      <c r="C186" s="2">
-        <v>185</v>
-      </c>
-      <c r="D186" s="2">
-        <v>9</v>
-      </c>
-      <c r="E186" s="2">
-        <v>7</v>
-      </c>
-      <c r="F186" s="2">
-        <v>0</v>
-      </c>
-      <c r="G186" s="2">
-        <v>0</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="2">
-        <v>186</v>
-      </c>
-      <c r="C187" s="2">
-        <v>186</v>
-      </c>
-      <c r="D187" s="2">
-        <v>8</v>
-      </c>
-      <c r="E187" s="2">
-        <v>8</v>
-      </c>
-      <c r="F187" s="2">
-        <v>0</v>
-      </c>
-      <c r="G187" s="2">
-        <v>0</v>
-      </c>
-      <c r="H187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="2">
-        <v>187</v>
-      </c>
-      <c r="C188" s="2">
-        <v>187</v>
-      </c>
-      <c r="D188" s="2">
-        <v>7</v>
-      </c>
-      <c r="E188" s="2">
-        <v>9</v>
-      </c>
-      <c r="F188" s="2">
-        <v>0</v>
-      </c>
-      <c r="G188" s="2">
-        <v>0</v>
-      </c>
-      <c r="H188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
-        <v>188</v>
-      </c>
-      <c r="C189" s="2">
-        <v>188</v>
-      </c>
-      <c r="D189" s="2">
-        <v>8</v>
-      </c>
-      <c r="E189" s="2">
-        <v>7</v>
-      </c>
-      <c r="F189" s="2">
-        <v>0</v>
-      </c>
-      <c r="G189" s="2">
-        <v>0</v>
-      </c>
-      <c r="H189" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
-        <v>189</v>
-      </c>
-      <c r="C190" s="2">
-        <v>189</v>
-      </c>
-      <c r="D190" s="2">
-        <v>2</v>
-      </c>
-      <c r="E190" s="2">
-        <v>8</v>
-      </c>
-      <c r="F190" s="2">
-        <v>9</v>
-      </c>
-      <c r="G190" s="2">
-        <v>0</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
-        <v>190</v>
-      </c>
-      <c r="C191" s="2">
-        <v>190</v>
-      </c>
-      <c r="D191" s="2">
-        <v>8</v>
-      </c>
-      <c r="E191" s="2">
-        <v>5</v>
-      </c>
-      <c r="F191" s="2">
-        <v>0</v>
-      </c>
-      <c r="G191" s="2">
-        <v>8</v>
-      </c>
-      <c r="H191" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="2">
-        <v>191</v>
-      </c>
-      <c r="C192" s="2">
-        <v>191</v>
-      </c>
-      <c r="D192" s="2">
-        <v>3</v>
-      </c>
-      <c r="E192" s="2">
-        <v>9</v>
-      </c>
-      <c r="F192" s="2">
-        <v>0</v>
-      </c>
-      <c r="G192" s="2">
-        <v>0</v>
-      </c>
-      <c r="H192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
-        <v>192</v>
-      </c>
-      <c r="C193" s="2">
-        <v>192</v>
-      </c>
-      <c r="D193" s="2">
-        <v>9</v>
-      </c>
-      <c r="E193" s="2">
-        <v>7</v>
-      </c>
-      <c r="F193" s="2">
-        <v>0</v>
-      </c>
-      <c r="G193" s="2">
-        <v>0</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
-        <v>193</v>
-      </c>
-      <c r="C194" s="2">
-        <v>193</v>
-      </c>
-      <c r="D194" s="2">
-        <v>8</v>
-      </c>
-      <c r="E194" s="2">
-        <v>8</v>
-      </c>
-      <c r="F194" s="2">
-        <v>0</v>
-      </c>
-      <c r="G194" s="2">
-        <v>0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
-        <v>194</v>
-      </c>
-      <c r="C195" s="2">
-        <v>194</v>
-      </c>
-      <c r="D195" s="2">
-        <v>8</v>
-      </c>
-      <c r="E195" s="2">
-        <v>9</v>
-      </c>
-      <c r="F195" s="2">
-        <v>0</v>
-      </c>
-      <c r="G195" s="2">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="2">
-        <v>195</v>
-      </c>
-      <c r="C196" s="2">
-        <v>195</v>
-      </c>
-      <c r="D196" s="2">
-        <v>8</v>
-      </c>
-      <c r="E196" s="2">
-        <v>7</v>
-      </c>
-      <c r="F196" s="2">
-        <v>0</v>
-      </c>
-      <c r="G196" s="2">
-        <v>0</v>
-      </c>
-      <c r="H196" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="2">
-        <v>196</v>
-      </c>
-      <c r="C197" s="2">
-        <v>196</v>
-      </c>
-      <c r="D197" s="2">
-        <v>2</v>
-      </c>
-      <c r="E197" s="2">
-        <v>8</v>
-      </c>
-      <c r="F197" s="2">
-        <v>9</v>
-      </c>
-      <c r="G197" s="2">
-        <v>0</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="2">
-        <v>197</v>
-      </c>
-      <c r="C198" s="2">
-        <v>197</v>
-      </c>
-      <c r="D198" s="2">
-        <v>2</v>
-      </c>
-      <c r="E198" s="2">
-        <v>10</v>
-      </c>
-      <c r="F198" s="2">
-        <v>8</v>
-      </c>
-      <c r="G198" s="2">
-        <v>0</v>
-      </c>
-      <c r="H198" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="2">
-        <v>198</v>
-      </c>
-      <c r="C199" s="2">
-        <v>198</v>
-      </c>
-      <c r="D199" s="2">
-        <v>9</v>
-      </c>
-      <c r="E199" s="2">
-        <v>5</v>
-      </c>
-      <c r="F199" s="2">
-        <v>6</v>
-      </c>
-      <c r="G199" s="2">
-        <v>8</v>
-      </c>
-      <c r="H199" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="2">
-        <v>199</v>
-      </c>
-      <c r="C200" s="2">
-        <v>199</v>
-      </c>
-      <c r="D200" s="2">
-        <v>7</v>
-      </c>
-      <c r="E200" s="2">
-        <v>6</v>
-      </c>
-      <c r="F200" s="2">
-        <v>0</v>
-      </c>
-      <c r="G200" s="2">
-        <v>6</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="2">
-        <v>200</v>
-      </c>
-      <c r="C201" s="2">
-        <v>200</v>
-      </c>
-      <c r="D201" s="2">
-        <v>9</v>
-      </c>
-      <c r="E201" s="2">
-        <v>10</v>
-      </c>
-      <c r="F201" s="2">
-        <v>0</v>
-      </c>
-      <c r="G201" s="2">
-        <v>0</v>
-      </c>
-      <c r="H201" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B202" s="2">
-        <v>201</v>
-      </c>
-      <c r="C202" s="2">
-        <v>201</v>
-      </c>
-      <c r="D202" s="2">
-        <v>6</v>
-      </c>
-      <c r="E202" s="2">
-        <v>10</v>
-      </c>
-      <c r="F202" s="2">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2">
-        <v>0</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="2">
-        <v>202</v>
-      </c>
-      <c r="C203" s="2">
-        <v>202</v>
-      </c>
-      <c r="D203" s="2">
-        <v>9</v>
-      </c>
-      <c r="E203" s="2">
-        <v>8</v>
-      </c>
-      <c r="F203" s="2">
-        <v>0</v>
-      </c>
-      <c r="G203" s="2">
-        <v>0</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="2">
-        <v>203</v>
-      </c>
-      <c r="C204" s="2">
-        <v>203</v>
-      </c>
-      <c r="D204" s="2">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2">
-        <v>4</v>
-      </c>
-      <c r="F204" s="2">
-        <v>0</v>
-      </c>
-      <c r="G204" s="2">
-        <v>3</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="2">
-        <v>204</v>
-      </c>
-      <c r="C205" s="2">
-        <v>204</v>
-      </c>
-      <c r="D205" s="2">
-        <v>9</v>
-      </c>
-      <c r="E205" s="2">
-        <v>6</v>
-      </c>
-      <c r="F205" s="2">
-        <v>0</v>
-      </c>
-      <c r="G205" s="2">
-        <v>6</v>
-      </c>
-      <c r="H205" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="2">
-        <v>205</v>
-      </c>
-      <c r="C206" s="2">
-        <v>205</v>
-      </c>
-      <c r="D206" s="2">
-        <v>9</v>
-      </c>
-      <c r="E206" s="2">
-        <v>9</v>
-      </c>
-      <c r="F206" s="2">
-        <v>0</v>
-      </c>
-      <c r="G206" s="2">
-        <v>0</v>
-      </c>
-      <c r="H206" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="2">
-        <v>206</v>
-      </c>
-      <c r="C207" s="2">
-        <v>206</v>
-      </c>
-      <c r="D207" s="2">
-        <v>5</v>
-      </c>
-      <c r="E207" s="2">
-        <v>7</v>
-      </c>
-      <c r="F207" s="2">
-        <v>7</v>
-      </c>
-      <c r="G207" s="2">
-        <v>0</v>
-      </c>
-      <c r="H207" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="2">
-        <v>207</v>
-      </c>
-      <c r="C208" s="2">
-        <v>207</v>
-      </c>
-      <c r="D208" s="2">
-        <v>6</v>
-      </c>
-      <c r="E208" s="2">
-        <v>8</v>
-      </c>
-      <c r="F208" s="2">
-        <v>9</v>
-      </c>
-      <c r="G208" s="2">
-        <v>0</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B209" s="2">
-        <v>208</v>
-      </c>
-      <c r="C209" s="2">
-        <v>208</v>
-      </c>
-      <c r="D209" s="2">
-        <v>10</v>
-      </c>
-      <c r="E209" s="2">
-        <v>6</v>
-      </c>
-      <c r="F209" s="2">
-        <v>0</v>
-      </c>
-      <c r="G209" s="2">
-        <v>3</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B210" s="2">
-        <v>209</v>
-      </c>
-      <c r="C210" s="2">
-        <v>209</v>
-      </c>
-      <c r="D210" s="2">
-        <v>2</v>
-      </c>
-      <c r="E210" s="2">
-        <v>10</v>
-      </c>
-      <c r="F210" s="2">
-        <v>8</v>
-      </c>
-      <c r="G210" s="2">
-        <v>0</v>
-      </c>
-      <c r="H210" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B211" s="2">
-        <v>210</v>
-      </c>
-      <c r="C211" s="2">
-        <v>210</v>
-      </c>
-      <c r="D211" s="2">
-        <v>9</v>
-      </c>
-      <c r="E211" s="2">
-        <v>5</v>
-      </c>
-      <c r="F211" s="2">
-        <v>6</v>
-      </c>
-      <c r="G211" s="2">
-        <v>8</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="2">
-        <v>211</v>
-      </c>
-      <c r="C212" s="2">
-        <v>211</v>
-      </c>
-      <c r="D212" s="2">
-        <v>7</v>
-      </c>
-      <c r="E212" s="2">
-        <v>6</v>
-      </c>
-      <c r="F212" s="2">
-        <v>0</v>
-      </c>
-      <c r="G212" s="2">
-        <v>6</v>
-      </c>
-      <c r="H212" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="2">
-        <v>212</v>
-      </c>
-      <c r="C213" s="2">
-        <v>212</v>
-      </c>
-      <c r="D213" s="2">
-        <v>9</v>
-      </c>
-      <c r="E213" s="2">
-        <v>10</v>
-      </c>
-      <c r="F213" s="2">
-        <v>0</v>
-      </c>
-      <c r="G213" s="2">
-        <v>0</v>
-      </c>
-      <c r="H213" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="2">
-        <v>213</v>
-      </c>
-      <c r="C214" s="2">
-        <v>213</v>
-      </c>
-      <c r="D214" s="2">
-        <v>9</v>
-      </c>
-      <c r="E214" s="2">
-        <v>9</v>
-      </c>
-      <c r="F214" s="2">
-        <v>0</v>
-      </c>
-      <c r="G214" s="2">
-        <v>0</v>
-      </c>
-      <c r="H214" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="2">
-        <v>214</v>
-      </c>
-      <c r="C215" s="2">
-        <v>214</v>
-      </c>
-      <c r="D215" s="2">
-        <v>5</v>
-      </c>
-      <c r="E215" s="2">
-        <v>7</v>
-      </c>
-      <c r="F215" s="2">
-        <v>7</v>
-      </c>
-      <c r="G215" s="2">
-        <v>0</v>
-      </c>
-      <c r="H215" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="2">
-        <v>215</v>
-      </c>
-      <c r="C216" s="2">
-        <v>215</v>
-      </c>
-      <c r="D216" s="2">
-        <v>6</v>
-      </c>
-      <c r="E216" s="2">
-        <v>8</v>
-      </c>
-      <c r="F216" s="2">
-        <v>9</v>
-      </c>
-      <c r="G216" s="2">
-        <v>0</v>
-      </c>
-      <c r="H216" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B217" s="2">
-        <v>216</v>
-      </c>
-      <c r="C217" s="2">
-        <v>216</v>
-      </c>
-      <c r="D217" s="2">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2">
-        <v>6</v>
-      </c>
-      <c r="F217" s="2">
-        <v>0</v>
-      </c>
-      <c r="G217" s="2">
-        <v>3</v>
-      </c>
-      <c r="H217" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B218" s="2">
-        <v>217</v>
-      </c>
-      <c r="C218" s="2">
-        <v>217</v>
-      </c>
-      <c r="D218" s="2">
-        <v>2</v>
-      </c>
-      <c r="E218" s="2">
-        <v>8</v>
-      </c>
-      <c r="F218" s="2">
-        <v>8</v>
-      </c>
-      <c r="G218" s="2">
-        <v>0</v>
-      </c>
-      <c r="H218" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B219" s="2">
-        <v>218</v>
-      </c>
-      <c r="C219" s="2">
-        <v>218</v>
-      </c>
-      <c r="D219" s="2">
-        <v>9</v>
-      </c>
-      <c r="E219" s="2">
-        <v>5</v>
-      </c>
-      <c r="F219" s="2">
-        <v>6</v>
-      </c>
-      <c r="G219" s="2">
-        <v>8</v>
-      </c>
-      <c r="H219" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="2">
-        <v>219</v>
-      </c>
-      <c r="C220" s="2">
-        <v>219</v>
-      </c>
-      <c r="D220" s="2">
-        <v>7</v>
-      </c>
-      <c r="E220" s="2">
-        <v>6</v>
-      </c>
-      <c r="F220" s="2">
-        <v>0</v>
-      </c>
-      <c r="G220" s="2">
-        <v>6</v>
-      </c>
-      <c r="H220" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B221" s="2">
-        <v>220</v>
-      </c>
-      <c r="C221" s="2">
-        <v>220</v>
-      </c>
-      <c r="D221" s="2">
-        <v>9</v>
-      </c>
-      <c r="E221" s="2">
-        <v>10</v>
-      </c>
-      <c r="F221" s="2">
-        <v>0</v>
-      </c>
-      <c r="G221" s="2">
-        <v>0</v>
-      </c>
-      <c r="H221" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B222" s="2">
-        <v>221</v>
-      </c>
-      <c r="C222" s="2">
-        <v>221</v>
-      </c>
-      <c r="D222" s="2">
-        <v>10</v>
-      </c>
-      <c r="E222" s="2">
-        <v>6</v>
-      </c>
-      <c r="F222" s="2">
-        <v>0</v>
-      </c>
-      <c r="G222" s="2">
-        <v>3</v>
-      </c>
-      <c r="H222" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="2">
-        <v>222</v>
-      </c>
-      <c r="C223" s="2">
-        <v>222</v>
-      </c>
-      <c r="D223" s="2">
-        <v>2</v>
-      </c>
-      <c r="E223" s="2">
-        <v>10</v>
-      </c>
-      <c r="F223" s="2">
-        <v>8</v>
-      </c>
-      <c r="G223" s="2">
-        <v>0</v>
-      </c>
-      <c r="H223" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="2">
-        <v>223</v>
-      </c>
-      <c r="C224" s="2">
-        <v>223</v>
-      </c>
-      <c r="D224" s="2">
-        <v>9</v>
-      </c>
-      <c r="E224" s="2">
-        <v>5</v>
-      </c>
-      <c r="F224" s="2">
-        <v>6</v>
-      </c>
-      <c r="G224" s="2">
-        <v>8</v>
-      </c>
-      <c r="H224" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="2">
-        <v>224</v>
-      </c>
-      <c r="C225" s="2">
-        <v>224</v>
-      </c>
-      <c r="D225" s="2">
-        <v>7</v>
-      </c>
-      <c r="E225" s="2">
-        <v>6</v>
-      </c>
-      <c r="F225" s="2">
-        <v>0</v>
-      </c>
-      <c r="G225" s="2">
-        <v>6</v>
-      </c>
-      <c r="H225" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B226" s="2">
-        <v>225</v>
-      </c>
-      <c r="C226" s="2">
-        <v>225</v>
-      </c>
-      <c r="D226" s="2">
-        <v>9</v>
-      </c>
-      <c r="E226" s="2">
-        <v>10</v>
-      </c>
-      <c r="F226" s="2">
-        <v>0</v>
-      </c>
-      <c r="G226" s="2">
-        <v>0</v>
-      </c>
-      <c r="H226" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="2">
-        <v>226</v>
-      </c>
-      <c r="C227" s="2">
-        <v>226</v>
-      </c>
-      <c r="D227" s="2">
-        <v>9</v>
-      </c>
-      <c r="E227" s="2">
-        <v>9</v>
-      </c>
-      <c r="F227" s="2">
-        <v>0</v>
-      </c>
-      <c r="G227" s="2">
-        <v>0</v>
-      </c>
-      <c r="H227" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="2">
-        <v>227</v>
-      </c>
-      <c r="C228" s="2">
-        <v>227</v>
-      </c>
-      <c r="D228" s="2">
-        <v>5</v>
-      </c>
-      <c r="E228" s="2">
-        <v>7</v>
-      </c>
-      <c r="F228" s="2">
-        <v>7</v>
-      </c>
-      <c r="G228" s="2">
-        <v>0</v>
-      </c>
-      <c r="H228" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B229" s="2">
-        <v>228</v>
-      </c>
-      <c r="C229" s="2">
-        <v>228</v>
-      </c>
-      <c r="D229" s="2">
-        <v>8</v>
-      </c>
-      <c r="E229" s="2">
-        <v>8</v>
-      </c>
-      <c r="F229" s="2">
-        <v>0</v>
-      </c>
-      <c r="G229" s="2">
-        <v>0</v>
-      </c>
-      <c r="H229" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B230" s="2">
-        <v>229</v>
-      </c>
-      <c r="C230" s="2">
-        <v>229</v>
-      </c>
-      <c r="D230" s="2">
-        <v>9</v>
-      </c>
-      <c r="E230" s="2">
-        <v>5</v>
-      </c>
-      <c r="F230" s="2">
-        <v>0</v>
-      </c>
-      <c r="G230" s="2">
-        <v>8</v>
-      </c>
-      <c r="H230" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="2">
-        <v>230</v>
-      </c>
-      <c r="C231" s="2">
-        <v>230</v>
-      </c>
-      <c r="D231" s="2">
-        <v>3</v>
-      </c>
-      <c r="E231" s="2">
-        <v>9</v>
-      </c>
-      <c r="F231" s="2">
-        <v>0</v>
-      </c>
-      <c r="G231" s="2">
-        <v>0</v>
-      </c>
-      <c r="H231" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B232" s="2">
-        <v>231</v>
-      </c>
-      <c r="C232" s="2">
-        <v>231</v>
-      </c>
-      <c r="D232" s="2">
-        <v>9</v>
-      </c>
-      <c r="E232" s="2">
-        <v>7</v>
-      </c>
-      <c r="F232" s="2">
-        <v>0</v>
-      </c>
-      <c r="G232" s="2">
-        <v>0</v>
-      </c>
-      <c r="H232" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B233" s="2">
-        <v>232</v>
-      </c>
-      <c r="C233" s="2">
-        <v>232</v>
-      </c>
-      <c r="D233" s="2">
-        <v>8</v>
-      </c>
-      <c r="E233" s="2">
-        <v>8</v>
-      </c>
-      <c r="F233" s="2">
-        <v>0</v>
-      </c>
-      <c r="G233" s="2">
-        <v>0</v>
-      </c>
-      <c r="H233" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="2">
-        <v>233</v>
-      </c>
-      <c r="C234" s="2">
-        <v>233</v>
-      </c>
-      <c r="D234" s="2">
-        <v>9</v>
-      </c>
-      <c r="E234" s="2">
-        <v>5</v>
-      </c>
-      <c r="F234" s="2">
-        <v>0</v>
-      </c>
-      <c r="G234" s="2">
-        <v>8</v>
-      </c>
-      <c r="H234" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="2">
-        <v>234</v>
-      </c>
-      <c r="C235" s="2">
-        <v>234</v>
-      </c>
-      <c r="D235" s="2">
-        <v>3</v>
-      </c>
-      <c r="E235" s="2">
-        <v>9</v>
-      </c>
-      <c r="F235" s="2">
-        <v>0</v>
-      </c>
-      <c r="G235" s="2">
-        <v>0</v>
-      </c>
-      <c r="H235" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="2">
-        <v>235</v>
-      </c>
-      <c r="C236" s="2">
-        <v>235</v>
-      </c>
-      <c r="D236" s="2">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2">
-        <v>7</v>
-      </c>
-      <c r="F236" s="2">
-        <v>0</v>
-      </c>
-      <c r="G236" s="2">
-        <v>0</v>
-      </c>
-      <c r="H236" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B237" s="2">
-        <v>236</v>
-      </c>
-      <c r="C237" s="2">
-        <v>236</v>
-      </c>
-      <c r="D237" s="2">
-        <v>9</v>
-      </c>
-      <c r="E237" s="2">
-        <v>5</v>
-      </c>
-      <c r="F237" s="2">
-        <v>0</v>
-      </c>
-      <c r="G237" s="2">
-        <v>8</v>
-      </c>
-      <c r="H237" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B238" s="2">
-        <v>237</v>
-      </c>
-      <c r="C238" s="2">
-        <v>237</v>
-      </c>
-      <c r="D238" s="2">
-        <v>3</v>
-      </c>
-      <c r="E238" s="2">
-        <v>9</v>
-      </c>
-      <c r="F238" s="2">
-        <v>0</v>
-      </c>
-      <c r="G238" s="2">
-        <v>0</v>
-      </c>
-      <c r="H238" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="2">
-        <v>238</v>
-      </c>
-      <c r="C239" s="2">
-        <v>238</v>
-      </c>
-      <c r="D239" s="2">
-        <v>9</v>
-      </c>
-      <c r="E239" s="2">
-        <v>7</v>
-      </c>
-      <c r="F239" s="2">
-        <v>0</v>
-      </c>
-      <c r="G239" s="2">
-        <v>0</v>
-      </c>
-      <c r="H239" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="2">
-        <v>239</v>
-      </c>
-      <c r="C240" s="2">
-        <v>239</v>
-      </c>
-      <c r="D240" s="2">
-        <v>8</v>
-      </c>
-      <c r="E240" s="2">
-        <v>8</v>
-      </c>
-      <c r="F240" s="2">
-        <v>0</v>
-      </c>
-      <c r="G240" s="2">
-        <v>0</v>
-      </c>
-      <c r="H240" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B241" s="2">
-        <v>240</v>
-      </c>
-      <c r="C241" s="2">
-        <v>240</v>
-      </c>
-      <c r="D241" s="2">
-        <v>9</v>
-      </c>
-      <c r="E241" s="2">
-        <v>5</v>
-      </c>
-      <c r="F241" s="2">
-        <v>0</v>
-      </c>
-      <c r="G241" s="2">
-        <v>8</v>
-      </c>
-      <c r="H241" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B242" s="2">
-        <v>241</v>
-      </c>
-      <c r="C242" s="2">
-        <v>241</v>
-      </c>
-      <c r="D242" s="2">
-        <v>7</v>
-      </c>
-      <c r="E242" s="2">
-        <v>8</v>
-      </c>
-      <c r="F242" s="2">
-        <v>0</v>
-      </c>
-      <c r="G242" s="2">
-        <v>0</v>
-      </c>
-      <c r="H242" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="2">
-        <v>242</v>
-      </c>
-      <c r="C243" s="2">
-        <v>242</v>
-      </c>
-      <c r="D243" s="2">
-        <v>3</v>
-      </c>
-      <c r="E243" s="2">
-        <v>8</v>
-      </c>
-      <c r="F243" s="2">
-        <v>5</v>
-      </c>
-      <c r="G243" s="2">
-        <v>0</v>
-      </c>
-      <c r="H243" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="2">
-        <v>243</v>
-      </c>
-      <c r="C244" s="2">
-        <v>243</v>
-      </c>
-      <c r="D244" s="2">
-        <v>4</v>
-      </c>
-      <c r="E244" s="2">
-        <v>4</v>
-      </c>
-      <c r="F244" s="2">
-        <v>6</v>
-      </c>
-      <c r="G244" s="2">
-        <v>4</v>
-      </c>
-      <c r="H244" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B245" s="2">
-        <v>244</v>
-      </c>
-      <c r="C245" s="2">
-        <v>244</v>
-      </c>
-      <c r="D245" s="2">
-        <v>7</v>
-      </c>
-      <c r="E245" s="2">
-        <v>6</v>
-      </c>
-      <c r="F245" s="2">
-        <v>0</v>
-      </c>
-      <c r="G245" s="2">
-        <v>5</v>
-      </c>
-      <c r="H245" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B246" s="2">
-        <v>245</v>
-      </c>
-      <c r="C246" s="2">
-        <v>245</v>
-      </c>
-      <c r="D246" s="2">
-        <v>6</v>
-      </c>
-      <c r="E246" s="2">
-        <v>4</v>
-      </c>
-      <c r="F246" s="2">
-        <v>8</v>
-      </c>
-      <c r="G246" s="2">
-        <v>4</v>
-      </c>
-      <c r="H246" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B247" s="2">
-        <v>246</v>
-      </c>
-      <c r="C247" s="2">
-        <v>246</v>
-      </c>
-      <c r="D247" s="2">
-        <v>9</v>
-      </c>
-      <c r="E247" s="2">
-        <v>10</v>
-      </c>
-      <c r="F247" s="2">
-        <v>0</v>
-      </c>
-      <c r="G247" s="2">
-        <v>0</v>
-      </c>
-      <c r="H247" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B248" s="2">
-        <v>247</v>
-      </c>
-      <c r="C248" s="2">
-        <v>247</v>
-      </c>
-      <c r="D248" s="2">
-        <v>8</v>
-      </c>
-      <c r="E248" s="2">
-        <v>8</v>
-      </c>
-      <c r="F248" s="2">
-        <v>0</v>
-      </c>
-      <c r="G248" s="2">
-        <v>0</v>
-      </c>
-      <c r="H248" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B249" s="2">
-        <v>248</v>
-      </c>
-      <c r="C249" s="2">
-        <v>248</v>
-      </c>
-      <c r="D249" s="2">
-        <v>9</v>
-      </c>
-      <c r="E249" s="2">
-        <v>5</v>
-      </c>
-      <c r="F249" s="2">
-        <v>0</v>
-      </c>
-      <c r="G249" s="2">
-        <v>8</v>
-      </c>
-      <c r="H249" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B250" s="2">
-        <v>249</v>
-      </c>
-      <c r="C250" s="2">
-        <v>249</v>
-      </c>
-      <c r="D250" s="2">
-        <v>7</v>
-      </c>
-      <c r="E250" s="2">
-        <v>8</v>
-      </c>
-      <c r="F250" s="2">
-        <v>0</v>
-      </c>
-      <c r="G250" s="2">
-        <v>0</v>
-      </c>
-      <c r="H250" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="2">
-        <v>250</v>
-      </c>
-      <c r="C251" s="2">
-        <v>250</v>
-      </c>
-      <c r="D251" s="2">
-        <v>3</v>
-      </c>
-      <c r="E251" s="2">
-        <v>8</v>
-      </c>
-      <c r="F251" s="2">
-        <v>5</v>
-      </c>
-      <c r="G251" s="2">
-        <v>0</v>
-      </c>
-      <c r="H251" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="2">
-        <v>251</v>
-      </c>
-      <c r="C252" s="2">
-        <v>251</v>
-      </c>
-      <c r="D252" s="2">
-        <v>4</v>
-      </c>
-      <c r="E252" s="2">
-        <v>4</v>
-      </c>
-      <c r="F252" s="2">
-        <v>6</v>
-      </c>
-      <c r="G252" s="2">
-        <v>4</v>
-      </c>
-      <c r="H252" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="2">
-        <v>252</v>
-      </c>
-      <c r="C253" s="2">
-        <v>252</v>
-      </c>
-      <c r="D253" s="2">
-        <v>8</v>
-      </c>
-      <c r="E253" s="2">
-        <v>8</v>
-      </c>
-      <c r="F253" s="2">
-        <v>0</v>
-      </c>
-      <c r="G253" s="2">
-        <v>0</v>
-      </c>
-      <c r="H253" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B254" s="2">
-        <v>253</v>
-      </c>
-      <c r="C254" s="2">
-        <v>253</v>
-      </c>
-      <c r="D254" s="2">
-        <v>9</v>
-      </c>
-      <c r="E254" s="2">
-        <v>5</v>
-      </c>
-      <c r="F254" s="2">
-        <v>0</v>
-      </c>
-      <c r="G254" s="2">
-        <v>8</v>
-      </c>
-      <c r="H254" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B255" s="2">
-        <v>254</v>
-      </c>
-      <c r="C255" s="2">
-        <v>254</v>
-      </c>
-      <c r="D255" s="2">
-        <v>7</v>
-      </c>
-      <c r="E255" s="2">
-        <v>8</v>
-      </c>
-      <c r="F255" s="2">
-        <v>0</v>
-      </c>
-      <c r="G255" s="2">
-        <v>0</v>
-      </c>
-      <c r="H255" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B256" s="2">
-        <v>255</v>
-      </c>
-      <c r="C256" s="2">
-        <v>255</v>
-      </c>
-      <c r="D256" s="2">
-        <v>10</v>
-      </c>
-      <c r="E256" s="2">
-        <v>6</v>
-      </c>
-      <c r="F256" s="2">
-        <v>0</v>
-      </c>
-      <c r="G256" s="2">
-        <v>3</v>
-      </c>
-      <c r="H256" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="2">
-        <v>256</v>
-      </c>
-      <c r="C257" s="2">
-        <v>256</v>
-      </c>
-      <c r="D257" s="2">
-        <v>2</v>
-      </c>
-      <c r="E257" s="2">
-        <v>10</v>
-      </c>
-      <c r="F257" s="2">
-        <v>8</v>
-      </c>
-      <c r="G257" s="2">
-        <v>0</v>
-      </c>
-      <c r="H257" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B258" s="2">
-        <v>257</v>
-      </c>
-      <c r="C258" s="2">
-        <v>257</v>
-      </c>
-      <c r="D258" s="2">
-        <v>3</v>
-      </c>
-      <c r="E258" s="2">
-        <v>9</v>
-      </c>
-      <c r="F258" s="2">
-        <v>0</v>
-      </c>
-      <c r="G258" s="2">
-        <v>0</v>
-      </c>
-      <c r="H258" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B259" s="2">
-        <v>258</v>
-      </c>
-      <c r="C259" s="2">
-        <v>258</v>
-      </c>
-      <c r="D259" s="2">
-        <v>9</v>
-      </c>
-      <c r="E259" s="2">
-        <v>7</v>
-      </c>
-      <c r="F259" s="2">
-        <v>0</v>
-      </c>
-      <c r="G259" s="2">
-        <v>0</v>
-      </c>
-      <c r="H259" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B260" s="2">
-        <v>259</v>
-      </c>
-      <c r="C260" s="2">
-        <v>259</v>
-      </c>
-      <c r="D260" s="2">
-        <v>9</v>
-      </c>
-      <c r="E260" s="2">
-        <v>5</v>
-      </c>
-      <c r="F260" s="2">
-        <v>0</v>
-      </c>
-      <c r="G260" s="2">
-        <v>8</v>
-      </c>
-      <c r="H260" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B261" s="2">
-        <v>260</v>
-      </c>
-      <c r="C261" s="2">
-        <v>260</v>
-      </c>
-      <c r="D261" s="2">
-        <v>3</v>
-      </c>
-      <c r="E261" s="2">
-        <v>9</v>
-      </c>
-      <c r="F261" s="2">
-        <v>0</v>
-      </c>
-      <c r="G261" s="2">
-        <v>0</v>
-      </c>
-      <c r="H261" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="2">
-        <v>261</v>
-      </c>
-      <c r="C262" s="2">
-        <v>261</v>
-      </c>
-      <c r="D262" s="2">
-        <v>9</v>
-      </c>
-      <c r="E262" s="2">
-        <v>7</v>
-      </c>
-      <c r="F262" s="2">
-        <v>0</v>
-      </c>
-      <c r="G262" s="2">
-        <v>0</v>
-      </c>
-      <c r="H262" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B263" s="2">
-        <v>262</v>
-      </c>
-      <c r="C263" s="2">
-        <v>262</v>
-      </c>
-      <c r="D263" s="2">
-        <v>8</v>
-      </c>
-      <c r="E263" s="2">
-        <v>8</v>
-      </c>
-      <c r="F263" s="2">
-        <v>0</v>
-      </c>
-      <c r="G263" s="2">
-        <v>0</v>
-      </c>
-      <c r="H263" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B264" s="2">
-        <v>263</v>
-      </c>
-      <c r="C264" s="2">
-        <v>263</v>
-      </c>
-      <c r="D264" s="2">
-        <v>9</v>
-      </c>
-      <c r="E264" s="2">
-        <v>5</v>
-      </c>
-      <c r="F264" s="2">
-        <v>0</v>
-      </c>
-      <c r="G264" s="2">
-        <v>8</v>
-      </c>
-      <c r="H264" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B265" s="2">
-        <v>264</v>
-      </c>
-      <c r="C265" s="2">
-        <v>264</v>
-      </c>
-      <c r="D265" s="2">
-        <v>7</v>
-      </c>
-      <c r="E265" s="2">
-        <v>8</v>
-      </c>
-      <c r="F265" s="2">
-        <v>0</v>
-      </c>
-      <c r="G265" s="2">
-        <v>0</v>
-      </c>
-      <c r="H265" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B266" s="2">
-        <v>265</v>
-      </c>
-      <c r="C266" s="2">
-        <v>265</v>
-      </c>
-      <c r="D266" s="2">
-        <v>3</v>
-      </c>
-      <c r="E266" s="2">
-        <v>8</v>
-      </c>
-      <c r="F266" s="2">
-        <v>5</v>
-      </c>
-      <c r="G266" s="2">
-        <v>0</v>
-      </c>
-      <c r="H266" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B267" s="2">
-        <v>266</v>
-      </c>
-      <c r="C267" s="2">
-        <v>266</v>
-      </c>
-      <c r="D267" s="2">
-        <v>9</v>
-      </c>
-      <c r="E267" s="2">
-        <v>5</v>
-      </c>
-      <c r="F267" s="2">
-        <v>0</v>
-      </c>
-      <c r="G267" s="2">
-        <v>8</v>
-      </c>
-      <c r="H267" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B268" s="2">
-        <v>267</v>
-      </c>
-      <c r="C268" s="2">
-        <v>267</v>
-      </c>
-      <c r="D268" s="2">
-        <v>9</v>
-      </c>
-      <c r="E268" s="2">
-        <v>5</v>
-      </c>
-      <c r="F268" s="2">
-        <v>0</v>
-      </c>
-      <c r="G268" s="2">
-        <v>8</v>
-      </c>
-      <c r="H268" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="2">
-        <v>268</v>
-      </c>
-      <c r="C269" s="2">
-        <v>268</v>
-      </c>
-      <c r="D269" s="2">
-        <v>3</v>
-      </c>
-      <c r="E269" s="2">
-        <v>9</v>
-      </c>
-      <c r="F269" s="2">
-        <v>0</v>
-      </c>
-      <c r="G269" s="2">
-        <v>0</v>
-      </c>
-      <c r="H269" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B270" s="2">
-        <v>269</v>
-      </c>
-      <c r="C270" s="2">
-        <v>269</v>
-      </c>
-      <c r="D270" s="2">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2">
-        <v>7</v>
-      </c>
-      <c r="F270" s="2">
-        <v>0</v>
-      </c>
-      <c r="G270" s="2">
-        <v>0</v>
-      </c>
-      <c r="H270" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B271" s="2">
-        <v>270</v>
-      </c>
-      <c r="C271" s="2">
-        <v>270</v>
-      </c>
-      <c r="D271" s="2">
-        <v>9</v>
-      </c>
-      <c r="E271" s="2">
-        <v>10</v>
-      </c>
-      <c r="F271" s="2">
-        <v>0</v>
-      </c>
-      <c r="G271" s="2">
-        <v>0</v>
-      </c>
-      <c r="H271" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B272" s="2">
-        <v>271</v>
-      </c>
-      <c r="C272" s="2">
-        <v>271</v>
-      </c>
-      <c r="D272" s="2">
-        <v>8</v>
-      </c>
-      <c r="E272" s="2">
-        <v>8</v>
-      </c>
-      <c r="F272" s="2">
-        <v>0</v>
-      </c>
-      <c r="G272" s="2">
-        <v>0</v>
-      </c>
-      <c r="H272" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B273" s="2">
-        <v>272</v>
-      </c>
-      <c r="C273" s="2">
-        <v>272</v>
-      </c>
-      <c r="D273" s="2">
-        <v>9</v>
-      </c>
-      <c r="E273" s="2">
-        <v>5</v>
-      </c>
-      <c r="F273" s="2">
-        <v>0</v>
-      </c>
-      <c r="G273" s="2">
-        <v>8</v>
-      </c>
-      <c r="H273" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B274" s="2">
-        <v>273</v>
-      </c>
-      <c r="C274" s="2">
-        <v>273</v>
-      </c>
-      <c r="D274" s="2">
-        <v>7</v>
-      </c>
-      <c r="E274" s="2">
-        <v>8</v>
-      </c>
-      <c r="F274" s="2">
-        <v>0</v>
-      </c>
-      <c r="G274" s="2">
-        <v>0</v>
-      </c>
-      <c r="H274" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B275" s="2">
-        <v>274</v>
-      </c>
-      <c r="C275" s="2">
-        <v>274</v>
-      </c>
-      <c r="D275" s="2">
-        <v>3</v>
-      </c>
-      <c r="E275" s="2">
-        <v>8</v>
-      </c>
-      <c r="F275" s="2">
-        <v>5</v>
-      </c>
-      <c r="G275" s="2">
-        <v>0</v>
-      </c>
-      <c r="H275" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B276" s="2">
-        <v>275</v>
-      </c>
-      <c r="C276" s="2">
-        <v>275</v>
-      </c>
-      <c r="D276" s="2">
-        <v>4</v>
-      </c>
-      <c r="E276" s="2">
-        <v>4</v>
-      </c>
-      <c r="F276" s="2">
-        <v>6</v>
-      </c>
-      <c r="G276" s="2">
-        <v>4</v>
-      </c>
-      <c r="H276" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B277" s="2">
-        <v>276</v>
-      </c>
-      <c r="C277" s="2">
-        <v>276</v>
-      </c>
-      <c r="D277" s="2">
-        <v>8</v>
-      </c>
-      <c r="E277" s="2">
-        <v>8</v>
-      </c>
-      <c r="F277" s="2">
-        <v>0</v>
-      </c>
-      <c r="G277" s="2">
-        <v>0</v>
-      </c>
-      <c r="H277" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B278" s="2">
-        <v>277</v>
-      </c>
-      <c r="C278" s="2">
-        <v>277</v>
-      </c>
-      <c r="D278" s="2">
-        <v>9</v>
-      </c>
-      <c r="E278" s="2">
-        <v>5</v>
-      </c>
-      <c r="F278" s="2">
-        <v>0</v>
-      </c>
-      <c r="G278" s="2">
-        <v>8</v>
-      </c>
-      <c r="H278" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B279" s="2">
-        <v>278</v>
-      </c>
-      <c r="C279" s="2">
-        <v>278</v>
-      </c>
-      <c r="D279" s="2">
-        <v>9</v>
-      </c>
-      <c r="E279" s="2">
-        <v>7</v>
-      </c>
-      <c r="F279" s="2">
-        <v>0</v>
-      </c>
-      <c r="G279" s="2">
-        <v>0</v>
-      </c>
-      <c r="H279" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="2">
-        <v>279</v>
-      </c>
-      <c r="C280" s="2">
-        <v>279</v>
-      </c>
-      <c r="D280" s="2">
-        <v>9</v>
-      </c>
-      <c r="E280" s="2">
-        <v>5</v>
-      </c>
-      <c r="F280" s="2">
-        <v>0</v>
-      </c>
-      <c r="G280" s="2">
-        <v>8</v>
-      </c>
-      <c r="H280" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B281" s="2">
-        <v>280</v>
-      </c>
-      <c r="C281" s="2">
-        <v>280</v>
-      </c>
-      <c r="D281" s="2">
-        <v>3</v>
-      </c>
-      <c r="E281" s="2">
-        <v>9</v>
-      </c>
-      <c r="F281" s="2">
-        <v>0</v>
-      </c>
-      <c r="G281" s="2">
-        <v>0</v>
-      </c>
-      <c r="H281" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B282" s="2">
-        <v>281</v>
-      </c>
-      <c r="C282" s="2">
-        <v>281</v>
-      </c>
-      <c r="D282" s="2">
-        <v>9</v>
-      </c>
-      <c r="E282" s="2">
-        <v>7</v>
-      </c>
-      <c r="F282" s="2">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2">
-        <v>0</v>
-      </c>
-      <c r="H282" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B283" s="2">
-        <v>282</v>
-      </c>
-      <c r="C283" s="2">
-        <v>282</v>
-      </c>
-      <c r="D283" s="2">
-        <v>9</v>
-      </c>
-      <c r="E283" s="2">
-        <v>5</v>
-      </c>
-      <c r="F283" s="2">
-        <v>0</v>
-      </c>
-      <c r="G283" s="2">
-        <v>8</v>
-      </c>
-      <c r="H283" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B284" s="2">
-        <v>283</v>
-      </c>
-      <c r="C284" s="2">
-        <v>283</v>
-      </c>
-      <c r="D284" s="2">
-        <v>3</v>
-      </c>
-      <c r="E284" s="2">
-        <v>9</v>
-      </c>
-      <c r="F284" s="2">
-        <v>0</v>
-      </c>
-      <c r="G284" s="2">
-        <v>0</v>
-      </c>
-      <c r="H284" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B285" s="2">
-        <v>284</v>
-      </c>
-      <c r="C285" s="2">
-        <v>284</v>
-      </c>
-      <c r="D285" s="2">
-        <v>2</v>
-      </c>
-      <c r="E285" s="2">
-        <v>10</v>
-      </c>
-      <c r="F285" s="2">
-        <v>9</v>
-      </c>
-      <c r="G285" s="2">
-        <v>0</v>
-      </c>
-      <c r="H285" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B286" s="2">
-        <v>285</v>
-      </c>
-      <c r="C286" s="2">
-        <v>285</v>
-      </c>
-      <c r="D286" s="2">
-        <v>9</v>
-      </c>
-      <c r="E286" s="2">
-        <v>7</v>
-      </c>
-      <c r="F286" s="2">
-        <v>0</v>
-      </c>
-      <c r="G286" s="2">
-        <v>0</v>
-      </c>
-      <c r="H286" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B287" s="2">
-        <v>286</v>
-      </c>
-      <c r="C287" s="2">
-        <v>286</v>
-      </c>
-      <c r="D287" s="2">
-        <v>9</v>
-      </c>
-      <c r="E287" s="2">
-        <v>7</v>
-      </c>
-      <c r="F287" s="2">
-        <v>0</v>
-      </c>
-      <c r="G287" s="2">
-        <v>0</v>
-      </c>
-      <c r="H287" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B288" s="2">
-        <v>287</v>
-      </c>
-      <c r="C288" s="2">
-        <v>287</v>
-      </c>
-      <c r="D288" s="2">
-        <v>5</v>
-      </c>
-      <c r="E288" s="2">
-        <v>10</v>
-      </c>
-      <c r="F288" s="2">
-        <v>5</v>
-      </c>
-      <c r="G288" s="2">
-        <v>0</v>
-      </c>
-      <c r="H288" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B289" s="2">
-        <v>288</v>
-      </c>
-      <c r="C289" s="2">
-        <v>288</v>
-      </c>
-      <c r="D289" s="2">
-        <v>4</v>
-      </c>
-      <c r="E289" s="2">
-        <v>10</v>
-      </c>
-      <c r="F289" s="2">
-        <v>8</v>
-      </c>
-      <c r="G289" s="2">
-        <v>0</v>
-      </c>
-      <c r="H289" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B290" s="2">
-        <v>289</v>
-      </c>
-      <c r="C290" s="2">
-        <v>289</v>
-      </c>
-      <c r="D290" s="2">
-        <v>5</v>
-      </c>
-      <c r="E290" s="2">
-        <v>8</v>
-      </c>
-      <c r="F290" s="2">
-        <v>9</v>
-      </c>
-      <c r="G290" s="2">
-        <v>0</v>
-      </c>
-      <c r="H290" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B291" s="2">
-        <v>290</v>
-      </c>
-      <c r="C291" s="2">
-        <v>290</v>
-      </c>
-      <c r="D291" s="2">
-        <v>3</v>
-      </c>
-      <c r="E291" s="2">
-        <v>7</v>
-      </c>
-      <c r="F291" s="2">
-        <v>8</v>
-      </c>
-      <c r="G291" s="2">
-        <v>0</v>
-      </c>
-      <c r="H291" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B292" s="2">
-        <v>291</v>
-      </c>
-      <c r="C292" s="2">
-        <v>291</v>
-      </c>
-      <c r="D292" s="2">
-        <v>5</v>
-      </c>
-      <c r="E292" s="2">
-        <v>6</v>
-      </c>
-      <c r="F292" s="2">
-        <v>10</v>
-      </c>
-      <c r="G292" s="2">
-        <v>8</v>
-      </c>
-      <c r="H292" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B293" s="2">
-        <v>292</v>
-      </c>
-      <c r="C293" s="2">
-        <v>292</v>
-      </c>
-      <c r="D293" s="2">
-        <v>8</v>
-      </c>
-      <c r="E293" s="2">
-        <v>4</v>
-      </c>
-      <c r="F293" s="2">
-        <v>0</v>
-      </c>
-      <c r="G293" s="2">
-        <v>4</v>
-      </c>
-      <c r="H293" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="2">
-        <v>293</v>
-      </c>
-      <c r="C294" s="2">
-        <v>293</v>
-      </c>
-      <c r="D294" s="2">
-        <v>8</v>
-      </c>
-      <c r="E294" s="2">
-        <v>5</v>
-      </c>
-      <c r="F294" s="2">
-        <v>0</v>
-      </c>
-      <c r="G294" s="2">
-        <v>4</v>
-      </c>
-      <c r="H294" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B295" s="2">
-        <v>294</v>
-      </c>
-      <c r="C295" s="2">
-        <v>294</v>
-      </c>
-      <c r="D295" s="2">
-        <v>10</v>
-      </c>
-      <c r="E295" s="2">
-        <v>10</v>
-      </c>
-      <c r="F295" s="2">
-        <v>0</v>
-      </c>
-      <c r="G295" s="2">
-        <v>0</v>
-      </c>
-      <c r="H295" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B296" s="2">
-        <v>295</v>
-      </c>
-      <c r="C296" s="2">
-        <v>295</v>
-      </c>
-      <c r="D296" s="2">
-        <v>6</v>
-      </c>
-      <c r="E296" s="2">
-        <v>7</v>
-      </c>
-      <c r="F296" s="2">
-        <v>6</v>
-      </c>
-      <c r="G296" s="2">
-        <v>0</v>
-      </c>
-      <c r="H296" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B297" s="2">
-        <v>296</v>
-      </c>
-      <c r="C297" s="2">
-        <v>296</v>
-      </c>
-      <c r="D297" s="2">
-        <v>7</v>
-      </c>
-      <c r="E297" s="2">
-        <v>8</v>
-      </c>
-      <c r="F297" s="2">
-        <v>0</v>
-      </c>
-      <c r="G297" s="2">
-        <v>0</v>
-      </c>
-      <c r="H297" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="2">
-        <v>297</v>
-      </c>
-      <c r="C298" s="2">
-        <v>297</v>
-      </c>
-      <c r="D298" s="2">
-        <v>4</v>
-      </c>
-      <c r="E298" s="2">
-        <v>10</v>
-      </c>
-      <c r="F298" s="2">
-        <v>8</v>
-      </c>
-      <c r="G298" s="2">
-        <v>0</v>
-      </c>
-      <c r="H298" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="2">
-        <v>298</v>
-      </c>
-      <c r="C299" s="2">
-        <v>298</v>
-      </c>
-      <c r="D299" s="2">
-        <v>5</v>
-      </c>
-      <c r="E299" s="2">
-        <v>8</v>
-      </c>
-      <c r="F299" s="2">
-        <v>9</v>
-      </c>
-      <c r="G299" s="2">
-        <v>0</v>
-      </c>
-      <c r="H299" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B300" s="2">
-        <v>299</v>
-      </c>
-      <c r="C300" s="2">
-        <v>299</v>
-      </c>
-      <c r="D300" s="2">
-        <v>3</v>
-      </c>
-      <c r="E300" s="2">
-        <v>7</v>
-      </c>
-      <c r="F300" s="2">
-        <v>8</v>
-      </c>
-      <c r="G300" s="2">
-        <v>0</v>
-      </c>
-      <c r="H300" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B301" s="2">
-        <v>300</v>
-      </c>
-      <c r="C301" s="2">
-        <v>300</v>
-      </c>
-      <c r="D301" s="2">
-        <v>5</v>
-      </c>
-      <c r="E301" s="2">
-        <v>6</v>
-      </c>
-      <c r="F301" s="2">
-        <v>10</v>
-      </c>
-      <c r="G301" s="2">
-        <v>8</v>
-      </c>
-      <c r="H301" s="2">
         <v>0</v>
       </c>
     </row>
